--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3886" uniqueCount="3884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3887" uniqueCount="3885">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11666,6 +11666,9 @@
   </si>
   <si>
     <t>7-21-2021</t>
+  </si>
+  <si>
+    <t>7-22-2021</t>
   </si>
 </sst>
 </file>
@@ -11802,119 +11805,119 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3850:$A$3880</c:f>
+              <c:f>DolarToday!$A$3851:$A$3881</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>6-21-2021</c:v>
+                  <c:v>6-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6-22-2021</c:v>
+                  <c:v>6-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6-23-2021</c:v>
+                  <c:v>6-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6-24-2021</c:v>
+                  <c:v>6-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6-25-2021</c:v>
+                  <c:v>6-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6-26-2021</c:v>
+                  <c:v>6-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6-27-2021</c:v>
+                  <c:v>6-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6-28-2021</c:v>
+                  <c:v>6-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6-29-2021</c:v>
+                  <c:v>6-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6-30-2021</c:v>
+                  <c:v>7-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7-1-2021</c:v>
+                  <c:v>7-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7-2-2021</c:v>
+                  <c:v>7-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7-3-2021</c:v>
+                  <c:v>7-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7-4-2021</c:v>
+                  <c:v>7-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7-5-2021</c:v>
+                  <c:v>7-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7-6-2021</c:v>
+                  <c:v>7-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7-7-2021</c:v>
+                  <c:v>7-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7-8-2021</c:v>
+                  <c:v>7-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7-9-2021</c:v>
+                  <c:v>7-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7-10-2021</c:v>
+                  <c:v>7-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7-11-2021</c:v>
+                  <c:v>7-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7-12-2021</c:v>
+                  <c:v>7-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7-13-2021</c:v>
+                  <c:v>7-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7-14-2021</c:v>
+                  <c:v>7-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7-15-2021</c:v>
+                  <c:v>7-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7-16-2021</c:v>
+                  <c:v>7-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7-17-2021</c:v>
+                  <c:v>7-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7-18-2021</c:v>
+                  <c:v>7-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7-19-2021</c:v>
+                  <c:v>7-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7-20-2021</c:v>
+                  <c:v>7-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7-21-2021</c:v>
+                  <c:v>7-22-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3850:$B$3880</c:f>
+              <c:f>DolarToday!$B$3851:$B$3881</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3204461.5</c:v>
+                  <c:v>3180628.91</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3180628.91</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3180628.91</c:v>
+                  <c:v>3200592.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3200592.8</c:v>
@@ -11923,19 +11926,19 @@
                   <c:v>3200592.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3200592.8</c:v>
+                  <c:v>3273013.54</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3273013.54</c:v>
+                  <c:v>3259413.02</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3259413.02</c:v>
+                  <c:v>3267940.03</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3267940.03</c:v>
+                  <c:v>3290130.05</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3290130.05</c:v>
+                  <c:v>3250012.94</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>3250012.94</c:v>
@@ -11950,13 +11953,13 @@
                   <c:v>3250012.94</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3250012.94</c:v>
+                  <c:v>3251735.81</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3251735.81</c:v>
+                  <c:v>3555673.96</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3555673.96</c:v>
+                  <c:v>3306628.55</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>3306628.55</c:v>
@@ -11965,19 +11968,19 @@
                   <c:v>3306628.55</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3306628.55</c:v>
+                  <c:v>3310043.99</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3310043.99</c:v>
+                  <c:v>3350022.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3350022.5</c:v>
+                  <c:v>3425119.54</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3425119.54</c:v>
+                  <c:v>3555323.05</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3555323.05</c:v>
+                  <c:v>3700022.18</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>3700022.18</c:v>
@@ -11986,19 +11989,19 @@
                   <c:v>3700022.18</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3700022.18</c:v>
+                  <c:v>3702021.73</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3702021.73</c:v>
+                  <c:v>3705023.76</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3705023.76</c:v>
+                  <c:v>3790225.82</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3790225.82</c:v>
+                  <c:v>3850301.78</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3850301.78</c:v>
+                  <c:v>4000130.32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12405,7 +12408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3880"/>
+  <dimension ref="A1:K3881"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43465,16 +43468,6 @@
       <c r="B3878">
         <v>3705023.76</v>
       </c>
-      <c r="D3878" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3878" s="3"/>
-      <c r="F3878" s="3"/>
-      <c r="G3878" s="3"/>
-      <c r="H3878" s="3"/>
-      <c r="I3878" s="3"/>
-      <c r="J3878" s="3"/>
-      <c r="K3878" s="3"/>
     </row>
     <row r="3879" spans="1:11">
       <c r="A3879" t="s">
@@ -43483,16 +43476,16 @@
       <c r="B3879">
         <v>3790225.82</v>
       </c>
-      <c r="D3879" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3879" s="4"/>
-      <c r="F3879" s="4"/>
-      <c r="G3879" s="4"/>
-      <c r="H3879" s="4"/>
-      <c r="I3879" s="4"/>
-      <c r="J3879" s="4"/>
-      <c r="K3879" s="4"/>
+      <c r="D3879" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3879" s="3"/>
+      <c r="F3879" s="3"/>
+      <c r="G3879" s="3"/>
+      <c r="H3879" s="3"/>
+      <c r="I3879" s="3"/>
+      <c r="J3879" s="3"/>
+      <c r="K3879" s="3"/>
     </row>
     <row r="3880" spans="1:11">
       <c r="A3880" t="s">
@@ -43501,7 +43494,9 @@
       <c r="B3880">
         <v>3850301.78</v>
       </c>
-      <c r="D3880" s="4"/>
+      <c r="D3880" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3880" s="4"/>
       <c r="F3880" s="4"/>
       <c r="G3880" s="4"/>
@@ -43510,12 +43505,28 @@
       <c r="J3880" s="4"/>
       <c r="K3880" s="4"/>
     </row>
+    <row r="3881" spans="1:11">
+      <c r="A3881" t="s">
+        <v>3884</v>
+      </c>
+      <c r="B3881">
+        <v>4000130.32</v>
+      </c>
+      <c r="D3881" s="4"/>
+      <c r="E3881" s="4"/>
+      <c r="F3881" s="4"/>
+      <c r="G3881" s="4"/>
+      <c r="H3881" s="4"/>
+      <c r="I3881" s="4"/>
+      <c r="J3881" s="4"/>
+      <c r="K3881" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3878:K3878"/>
-    <mergeCell ref="D3879:K3880"/>
+    <mergeCell ref="D3879:K3879"/>
+    <mergeCell ref="D3880:K3881"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3887" uniqueCount="3885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3889" uniqueCount="3887">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11669,6 +11669,12 @@
   </si>
   <si>
     <t>7-22-2021</t>
+  </si>
+  <si>
+    <t>7-23-2021</t>
+  </si>
+  <si>
+    <t>7-24-2021</t>
   </si>
 </sst>
 </file>
@@ -11805,137 +11811,137 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3851:$A$3881</c:f>
+              <c:f>DolarToday!$A$3853:$A$3883</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>6-22-2021</c:v>
+                  <c:v>6-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6-23-2021</c:v>
+                  <c:v>6-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6-24-2021</c:v>
+                  <c:v>6-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6-25-2021</c:v>
+                  <c:v>6-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6-26-2021</c:v>
+                  <c:v>6-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6-27-2021</c:v>
+                  <c:v>6-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6-28-2021</c:v>
+                  <c:v>6-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6-29-2021</c:v>
+                  <c:v>7-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6-30-2021</c:v>
+                  <c:v>7-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7-1-2021</c:v>
+                  <c:v>7-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7-2-2021</c:v>
+                  <c:v>7-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7-3-2021</c:v>
+                  <c:v>7-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7-4-2021</c:v>
+                  <c:v>7-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7-5-2021</c:v>
+                  <c:v>7-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7-6-2021</c:v>
+                  <c:v>7-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7-7-2021</c:v>
+                  <c:v>7-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7-8-2021</c:v>
+                  <c:v>7-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7-9-2021</c:v>
+                  <c:v>7-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7-10-2021</c:v>
+                  <c:v>7-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7-11-2021</c:v>
+                  <c:v>7-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7-12-2021</c:v>
+                  <c:v>7-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7-13-2021</c:v>
+                  <c:v>7-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7-14-2021</c:v>
+                  <c:v>7-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7-15-2021</c:v>
+                  <c:v>7-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7-16-2021</c:v>
+                  <c:v>7-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7-17-2021</c:v>
+                  <c:v>7-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7-18-2021</c:v>
+                  <c:v>7-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7-19-2021</c:v>
+                  <c:v>7-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7-20-2021</c:v>
+                  <c:v>7-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7-21-2021</c:v>
+                  <c:v>7-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7-22-2021</c:v>
+                  <c:v>7-24-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3851:$B$3881</c:f>
+              <c:f>DolarToday!$B$3853:$B$3883</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3180628.91</c:v>
+                  <c:v>3200592.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3180628.91</c:v>
+                  <c:v>3200592.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3200592.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3200592.8</c:v>
+                  <c:v>3273013.54</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3200592.8</c:v>
+                  <c:v>3259413.02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3273013.54</c:v>
+                  <c:v>3267940.03</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3259413.02</c:v>
+                  <c:v>3290130.05</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3267940.03</c:v>
+                  <c:v>3250012.94</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3290130.05</c:v>
+                  <c:v>3250012.94</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3250012.94</c:v>
@@ -11947,58 +11953,58 @@
                   <c:v>3250012.94</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3250012.94</c:v>
+                  <c:v>3251735.81</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3250012.94</c:v>
+                  <c:v>3555673.96</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3251735.81</c:v>
+                  <c:v>3306628.55</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3555673.96</c:v>
+                  <c:v>3306628.55</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>3306628.55</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3306628.55</c:v>
+                  <c:v>3310043.99</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3306628.55</c:v>
+                  <c:v>3350022.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3310043.99</c:v>
+                  <c:v>3425119.54</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3350022.5</c:v>
+                  <c:v>3555323.05</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3425119.54</c:v>
+                  <c:v>3700022.18</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3555323.05</c:v>
+                  <c:v>3700022.18</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>3700022.18</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3700022.18</c:v>
+                  <c:v>3702021.73</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3700022.18</c:v>
+                  <c:v>3705023.76</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3702021.73</c:v>
+                  <c:v>3790225.82</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3705023.76</c:v>
+                  <c:v>3850301.78</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3790225.82</c:v>
+                  <c:v>4000130.32</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3850301.78</c:v>
+                  <c:v>4000130.32</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>4000130.32</c:v>
@@ -12408,7 +12414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3881"/>
+  <dimension ref="A1:K3883"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43476,16 +43482,6 @@
       <c r="B3879">
         <v>3790225.82</v>
       </c>
-      <c r="D3879" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3879" s="3"/>
-      <c r="F3879" s="3"/>
-      <c r="G3879" s="3"/>
-      <c r="H3879" s="3"/>
-      <c r="I3879" s="3"/>
-      <c r="J3879" s="3"/>
-      <c r="K3879" s="3"/>
     </row>
     <row r="3880" spans="1:11">
       <c r="A3880" t="s">
@@ -43494,16 +43490,6 @@
       <c r="B3880">
         <v>3850301.78</v>
       </c>
-      <c r="D3880" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3880" s="4"/>
-      <c r="F3880" s="4"/>
-      <c r="G3880" s="4"/>
-      <c r="H3880" s="4"/>
-      <c r="I3880" s="4"/>
-      <c r="J3880" s="4"/>
-      <c r="K3880" s="4"/>
     </row>
     <row r="3881" spans="1:11">
       <c r="A3881" t="s">
@@ -43512,21 +43498,57 @@
       <c r="B3881">
         <v>4000130.32</v>
       </c>
-      <c r="D3881" s="4"/>
-      <c r="E3881" s="4"/>
-      <c r="F3881" s="4"/>
-      <c r="G3881" s="4"/>
-      <c r="H3881" s="4"/>
-      <c r="I3881" s="4"/>
-      <c r="J3881" s="4"/>
-      <c r="K3881" s="4"/>
+      <c r="D3881" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3881" s="3"/>
+      <c r="F3881" s="3"/>
+      <c r="G3881" s="3"/>
+      <c r="H3881" s="3"/>
+      <c r="I3881" s="3"/>
+      <c r="J3881" s="3"/>
+      <c r="K3881" s="3"/>
+    </row>
+    <row r="3882" spans="1:11">
+      <c r="A3882" t="s">
+        <v>3885</v>
+      </c>
+      <c r="B3882">
+        <v>4000130.32</v>
+      </c>
+      <c r="D3882" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3882" s="4"/>
+      <c r="F3882" s="4"/>
+      <c r="G3882" s="4"/>
+      <c r="H3882" s="4"/>
+      <c r="I3882" s="4"/>
+      <c r="J3882" s="4"/>
+      <c r="K3882" s="4"/>
+    </row>
+    <row r="3883" spans="1:11">
+      <c r="A3883" t="s">
+        <v>3886</v>
+      </c>
+      <c r="B3883">
+        <v>4000130.32</v>
+      </c>
+      <c r="D3883" s="4"/>
+      <c r="E3883" s="4"/>
+      <c r="F3883" s="4"/>
+      <c r="G3883" s="4"/>
+      <c r="H3883" s="4"/>
+      <c r="I3883" s="4"/>
+      <c r="J3883" s="4"/>
+      <c r="K3883" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3879:K3879"/>
-    <mergeCell ref="D3880:K3881"/>
+    <mergeCell ref="D3881:K3881"/>
+    <mergeCell ref="D3882:K3883"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3889" uniqueCount="3887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3890" uniqueCount="3888">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11675,6 +11675,9 @@
   </si>
   <si>
     <t>7-24-2021</t>
+  </si>
+  <si>
+    <t>7-25-2021</t>
   </si>
 </sst>
 </file>
@@ -11811,108 +11814,108 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3853:$A$3883</c:f>
+              <c:f>DolarToday!$A$3854:$A$3884</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>6-24-2021</c:v>
+                  <c:v>6-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6-25-2021</c:v>
+                  <c:v>6-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6-26-2021</c:v>
+                  <c:v>6-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6-27-2021</c:v>
+                  <c:v>6-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6-28-2021</c:v>
+                  <c:v>6-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6-29-2021</c:v>
+                  <c:v>6-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6-30-2021</c:v>
+                  <c:v>7-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7-1-2021</c:v>
+                  <c:v>7-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7-2-2021</c:v>
+                  <c:v>7-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7-3-2021</c:v>
+                  <c:v>7-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7-4-2021</c:v>
+                  <c:v>7-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7-5-2021</c:v>
+                  <c:v>7-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7-6-2021</c:v>
+                  <c:v>7-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7-7-2021</c:v>
+                  <c:v>7-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7-8-2021</c:v>
+                  <c:v>7-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7-9-2021</c:v>
+                  <c:v>7-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7-10-2021</c:v>
+                  <c:v>7-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7-11-2021</c:v>
+                  <c:v>7-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7-12-2021</c:v>
+                  <c:v>7-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7-13-2021</c:v>
+                  <c:v>7-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7-14-2021</c:v>
+                  <c:v>7-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7-15-2021</c:v>
+                  <c:v>7-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7-16-2021</c:v>
+                  <c:v>7-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7-17-2021</c:v>
+                  <c:v>7-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7-18-2021</c:v>
+                  <c:v>7-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7-19-2021</c:v>
+                  <c:v>7-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7-20-2021</c:v>
+                  <c:v>7-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7-21-2021</c:v>
+                  <c:v>7-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7-22-2021</c:v>
+                  <c:v>7-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7-23-2021</c:v>
+                  <c:v>7-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7-24-2021</c:v>
+                  <c:v>7-25-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3853:$B$3883</c:f>
+              <c:f>DolarToday!$B$3854:$B$3884</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -11923,19 +11926,19 @@
                   <c:v>3200592.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3200592.8</c:v>
+                  <c:v>3273013.54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3273013.54</c:v>
+                  <c:v>3259413.02</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3259413.02</c:v>
+                  <c:v>3267940.03</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3267940.03</c:v>
+                  <c:v>3290130.05</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3290130.05</c:v>
+                  <c:v>3250012.94</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3250012.94</c:v>
@@ -11950,13 +11953,13 @@
                   <c:v>3250012.94</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3250012.94</c:v>
+                  <c:v>3251735.81</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3251735.81</c:v>
+                  <c:v>3555673.96</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3555673.96</c:v>
+                  <c:v>3306628.55</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>3306628.55</c:v>
@@ -11965,19 +11968,19 @@
                   <c:v>3306628.55</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3306628.55</c:v>
+                  <c:v>3310043.99</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3310043.99</c:v>
+                  <c:v>3350022.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3350022.5</c:v>
+                  <c:v>3425119.54</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3425119.54</c:v>
+                  <c:v>3555323.05</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3555323.05</c:v>
+                  <c:v>3700022.18</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>3700022.18</c:v>
@@ -11986,19 +11989,19 @@
                   <c:v>3700022.18</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3700022.18</c:v>
+                  <c:v>3702021.73</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3702021.73</c:v>
+                  <c:v>3705023.76</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3705023.76</c:v>
+                  <c:v>3790225.82</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3790225.82</c:v>
+                  <c:v>3850301.78</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3850301.78</c:v>
+                  <c:v>4000130.32</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>4000130.32</c:v>
@@ -12007,7 +12010,7 @@
                   <c:v>4000130.32</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4000130.32</c:v>
+                  <c:v>4081047.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12414,7 +12417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3883"/>
+  <dimension ref="A1:K3884"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43498,16 +43501,6 @@
       <c r="B3881">
         <v>4000130.32</v>
       </c>
-      <c r="D3881" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3881" s="3"/>
-      <c r="F3881" s="3"/>
-      <c r="G3881" s="3"/>
-      <c r="H3881" s="3"/>
-      <c r="I3881" s="3"/>
-      <c r="J3881" s="3"/>
-      <c r="K3881" s="3"/>
     </row>
     <row r="3882" spans="1:11">
       <c r="A3882" t="s">
@@ -43516,16 +43509,16 @@
       <c r="B3882">
         <v>4000130.32</v>
       </c>
-      <c r="D3882" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3882" s="4"/>
-      <c r="F3882" s="4"/>
-      <c r="G3882" s="4"/>
-      <c r="H3882" s="4"/>
-      <c r="I3882" s="4"/>
-      <c r="J3882" s="4"/>
-      <c r="K3882" s="4"/>
+      <c r="D3882" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3882" s="3"/>
+      <c r="F3882" s="3"/>
+      <c r="G3882" s="3"/>
+      <c r="H3882" s="3"/>
+      <c r="I3882" s="3"/>
+      <c r="J3882" s="3"/>
+      <c r="K3882" s="3"/>
     </row>
     <row r="3883" spans="1:11">
       <c r="A3883" t="s">
@@ -43534,7 +43527,9 @@
       <c r="B3883">
         <v>4000130.32</v>
       </c>
-      <c r="D3883" s="4"/>
+      <c r="D3883" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3883" s="4"/>
       <c r="F3883" s="4"/>
       <c r="G3883" s="4"/>
@@ -43543,12 +43538,28 @@
       <c r="J3883" s="4"/>
       <c r="K3883" s="4"/>
     </row>
+    <row r="3884" spans="1:11">
+      <c r="A3884" t="s">
+        <v>3887</v>
+      </c>
+      <c r="B3884">
+        <v>4081047.55</v>
+      </c>
+      <c r="D3884" s="4"/>
+      <c r="E3884" s="4"/>
+      <c r="F3884" s="4"/>
+      <c r="G3884" s="4"/>
+      <c r="H3884" s="4"/>
+      <c r="I3884" s="4"/>
+      <c r="J3884" s="4"/>
+      <c r="K3884" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3881:K3881"/>
-    <mergeCell ref="D3882:K3883"/>
+    <mergeCell ref="D3882:K3882"/>
+    <mergeCell ref="D3883:K3884"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3890" uniqueCount="3888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3891" uniqueCount="3889">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11678,6 +11678,9 @@
   </si>
   <si>
     <t>7-25-2021</t>
+  </si>
+  <si>
+    <t>7-26-2021</t>
   </si>
 </sst>
 </file>
@@ -11814,108 +11817,108 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3854:$A$3884</c:f>
+              <c:f>DolarToday!$A$3855:$A$3885</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>6-25-2021</c:v>
+                  <c:v>6-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6-26-2021</c:v>
+                  <c:v>6-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6-27-2021</c:v>
+                  <c:v>6-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6-28-2021</c:v>
+                  <c:v>6-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6-29-2021</c:v>
+                  <c:v>6-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6-30-2021</c:v>
+                  <c:v>7-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7-1-2021</c:v>
+                  <c:v>7-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7-2-2021</c:v>
+                  <c:v>7-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7-3-2021</c:v>
+                  <c:v>7-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7-4-2021</c:v>
+                  <c:v>7-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7-5-2021</c:v>
+                  <c:v>7-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7-6-2021</c:v>
+                  <c:v>7-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7-7-2021</c:v>
+                  <c:v>7-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7-8-2021</c:v>
+                  <c:v>7-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7-9-2021</c:v>
+                  <c:v>7-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7-10-2021</c:v>
+                  <c:v>7-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7-11-2021</c:v>
+                  <c:v>7-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7-12-2021</c:v>
+                  <c:v>7-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7-13-2021</c:v>
+                  <c:v>7-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7-14-2021</c:v>
+                  <c:v>7-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7-15-2021</c:v>
+                  <c:v>7-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7-16-2021</c:v>
+                  <c:v>7-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7-17-2021</c:v>
+                  <c:v>7-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7-18-2021</c:v>
+                  <c:v>7-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7-19-2021</c:v>
+                  <c:v>7-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7-20-2021</c:v>
+                  <c:v>7-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7-21-2021</c:v>
+                  <c:v>7-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7-22-2021</c:v>
+                  <c:v>7-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7-23-2021</c:v>
+                  <c:v>7-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7-24-2021</c:v>
+                  <c:v>7-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7-25-2021</c:v>
+                  <c:v>7-26-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3854:$B$3884</c:f>
+              <c:f>DolarToday!$B$3855:$B$3885</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -11923,19 +11926,19 @@
                   <c:v>3200592.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3200592.8</c:v>
+                  <c:v>3273013.54</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3273013.54</c:v>
+                  <c:v>3259413.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3259413.02</c:v>
+                  <c:v>3267940.03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3267940.03</c:v>
+                  <c:v>3290130.05</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3290130.05</c:v>
+                  <c:v>3250012.94</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3250012.94</c:v>
@@ -11950,13 +11953,13 @@
                   <c:v>3250012.94</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3250012.94</c:v>
+                  <c:v>3251735.81</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3251735.81</c:v>
+                  <c:v>3555673.96</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3555673.96</c:v>
+                  <c:v>3306628.55</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>3306628.55</c:v>
@@ -11965,19 +11968,19 @@
                   <c:v>3306628.55</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3306628.55</c:v>
+                  <c:v>3310043.99</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3310043.99</c:v>
+                  <c:v>3350022.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3350022.5</c:v>
+                  <c:v>3425119.54</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3425119.54</c:v>
+                  <c:v>3555323.05</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3555323.05</c:v>
+                  <c:v>3700022.18</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>3700022.18</c:v>
@@ -11986,19 +11989,19 @@
                   <c:v>3700022.18</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3700022.18</c:v>
+                  <c:v>3702021.73</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3702021.73</c:v>
+                  <c:v>3705023.76</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3705023.76</c:v>
+                  <c:v>3790225.82</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3790225.82</c:v>
+                  <c:v>3850301.78</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3850301.78</c:v>
+                  <c:v>4000130.32</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>4000130.32</c:v>
@@ -12007,10 +12010,10 @@
                   <c:v>4000130.32</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4000130.32</c:v>
+                  <c:v>4081047.55</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4081047.55</c:v>
+                  <c:v>4133044.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12417,7 +12420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3884"/>
+  <dimension ref="A1:K3885"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43509,16 +43512,6 @@
       <c r="B3882">
         <v>4000130.32</v>
       </c>
-      <c r="D3882" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3882" s="3"/>
-      <c r="F3882" s="3"/>
-      <c r="G3882" s="3"/>
-      <c r="H3882" s="3"/>
-      <c r="I3882" s="3"/>
-      <c r="J3882" s="3"/>
-      <c r="K3882" s="3"/>
     </row>
     <row r="3883" spans="1:11">
       <c r="A3883" t="s">
@@ -43527,16 +43520,16 @@
       <c r="B3883">
         <v>4000130.32</v>
       </c>
-      <c r="D3883" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3883" s="4"/>
-      <c r="F3883" s="4"/>
-      <c r="G3883" s="4"/>
-      <c r="H3883" s="4"/>
-      <c r="I3883" s="4"/>
-      <c r="J3883" s="4"/>
-      <c r="K3883" s="4"/>
+      <c r="D3883" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3883" s="3"/>
+      <c r="F3883" s="3"/>
+      <c r="G3883" s="3"/>
+      <c r="H3883" s="3"/>
+      <c r="I3883" s="3"/>
+      <c r="J3883" s="3"/>
+      <c r="K3883" s="3"/>
     </row>
     <row r="3884" spans="1:11">
       <c r="A3884" t="s">
@@ -43545,7 +43538,9 @@
       <c r="B3884">
         <v>4081047.55</v>
       </c>
-      <c r="D3884" s="4"/>
+      <c r="D3884" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3884" s="4"/>
       <c r="F3884" s="4"/>
       <c r="G3884" s="4"/>
@@ -43554,12 +43549,28 @@
       <c r="J3884" s="4"/>
       <c r="K3884" s="4"/>
     </row>
+    <row r="3885" spans="1:11">
+      <c r="A3885" t="s">
+        <v>3888</v>
+      </c>
+      <c r="B3885">
+        <v>4133044.13</v>
+      </c>
+      <c r="D3885" s="4"/>
+      <c r="E3885" s="4"/>
+      <c r="F3885" s="4"/>
+      <c r="G3885" s="4"/>
+      <c r="H3885" s="4"/>
+      <c r="I3885" s="4"/>
+      <c r="J3885" s="4"/>
+      <c r="K3885" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3882:K3882"/>
-    <mergeCell ref="D3883:K3884"/>
+    <mergeCell ref="D3883:K3883"/>
+    <mergeCell ref="D3884:K3885"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3891" uniqueCount="3889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3892" uniqueCount="3890">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11681,6 +11681,9 @@
   </si>
   <si>
     <t>7-26-2021</t>
+  </si>
+  <si>
+    <t>7-27-2021</t>
   </si>
 </sst>
 </file>
@@ -11817,125 +11820,125 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3855:$A$3885</c:f>
+              <c:f>DolarToday!$A$3856:$A$3886</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>6-26-2021</c:v>
+                  <c:v>6-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6-27-2021</c:v>
+                  <c:v>6-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6-28-2021</c:v>
+                  <c:v>6-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6-29-2021</c:v>
+                  <c:v>6-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6-30-2021</c:v>
+                  <c:v>7-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7-1-2021</c:v>
+                  <c:v>7-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7-2-2021</c:v>
+                  <c:v>7-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7-3-2021</c:v>
+                  <c:v>7-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7-4-2021</c:v>
+                  <c:v>7-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7-5-2021</c:v>
+                  <c:v>7-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7-6-2021</c:v>
+                  <c:v>7-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7-7-2021</c:v>
+                  <c:v>7-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7-8-2021</c:v>
+                  <c:v>7-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7-9-2021</c:v>
+                  <c:v>7-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7-10-2021</c:v>
+                  <c:v>7-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7-11-2021</c:v>
+                  <c:v>7-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7-12-2021</c:v>
+                  <c:v>7-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7-13-2021</c:v>
+                  <c:v>7-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7-14-2021</c:v>
+                  <c:v>7-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7-15-2021</c:v>
+                  <c:v>7-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7-16-2021</c:v>
+                  <c:v>7-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7-17-2021</c:v>
+                  <c:v>7-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7-18-2021</c:v>
+                  <c:v>7-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7-19-2021</c:v>
+                  <c:v>7-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7-20-2021</c:v>
+                  <c:v>7-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7-21-2021</c:v>
+                  <c:v>7-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7-22-2021</c:v>
+                  <c:v>7-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7-23-2021</c:v>
+                  <c:v>7-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7-24-2021</c:v>
+                  <c:v>7-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7-25-2021</c:v>
+                  <c:v>7-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7-26-2021</c:v>
+                  <c:v>7-27-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3855:$B$3885</c:f>
+              <c:f>DolarToday!$B$3856:$B$3886</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3200592.8</c:v>
+                  <c:v>3273013.54</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3273013.54</c:v>
+                  <c:v>3259413.02</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3259413.02</c:v>
+                  <c:v>3267940.03</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3267940.03</c:v>
+                  <c:v>3290130.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3290130.05</c:v>
+                  <c:v>3250012.94</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3250012.94</c:v>
@@ -11950,13 +11953,13 @@
                   <c:v>3250012.94</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3250012.94</c:v>
+                  <c:v>3251735.81</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3251735.81</c:v>
+                  <c:v>3555673.96</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3555673.96</c:v>
+                  <c:v>3306628.55</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>3306628.55</c:v>
@@ -11965,19 +11968,19 @@
                   <c:v>3306628.55</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3306628.55</c:v>
+                  <c:v>3310043.99</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3310043.99</c:v>
+                  <c:v>3350022.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3350022.5</c:v>
+                  <c:v>3425119.54</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3425119.54</c:v>
+                  <c:v>3555323.05</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3555323.05</c:v>
+                  <c:v>3700022.18</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>3700022.18</c:v>
@@ -11986,19 +11989,19 @@
                   <c:v>3700022.18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3700022.18</c:v>
+                  <c:v>3702021.73</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3702021.73</c:v>
+                  <c:v>3705023.76</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3705023.76</c:v>
+                  <c:v>3790225.82</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3790225.82</c:v>
+                  <c:v>3850301.78</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3850301.78</c:v>
+                  <c:v>4000130.32</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>4000130.32</c:v>
@@ -12007,13 +12010,13 @@
                   <c:v>4000130.32</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4000130.32</c:v>
+                  <c:v>4081047.55</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4081047.55</c:v>
+                  <c:v>4133044.13</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4133044.13</c:v>
+                  <c:v>4200142.28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12420,7 +12423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3885"/>
+  <dimension ref="A1:K3886"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43520,16 +43523,6 @@
       <c r="B3883">
         <v>4000130.32</v>
       </c>
-      <c r="D3883" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3883" s="3"/>
-      <c r="F3883" s="3"/>
-      <c r="G3883" s="3"/>
-      <c r="H3883" s="3"/>
-      <c r="I3883" s="3"/>
-      <c r="J3883" s="3"/>
-      <c r="K3883" s="3"/>
     </row>
     <row r="3884" spans="1:11">
       <c r="A3884" t="s">
@@ -43538,16 +43531,16 @@
       <c r="B3884">
         <v>4081047.55</v>
       </c>
-      <c r="D3884" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3884" s="4"/>
-      <c r="F3884" s="4"/>
-      <c r="G3884" s="4"/>
-      <c r="H3884" s="4"/>
-      <c r="I3884" s="4"/>
-      <c r="J3884" s="4"/>
-      <c r="K3884" s="4"/>
+      <c r="D3884" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3884" s="3"/>
+      <c r="F3884" s="3"/>
+      <c r="G3884" s="3"/>
+      <c r="H3884" s="3"/>
+      <c r="I3884" s="3"/>
+      <c r="J3884" s="3"/>
+      <c r="K3884" s="3"/>
     </row>
     <row r="3885" spans="1:11">
       <c r="A3885" t="s">
@@ -43556,7 +43549,9 @@
       <c r="B3885">
         <v>4133044.13</v>
       </c>
-      <c r="D3885" s="4"/>
+      <c r="D3885" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3885" s="4"/>
       <c r="F3885" s="4"/>
       <c r="G3885" s="4"/>
@@ -43565,12 +43560,28 @@
       <c r="J3885" s="4"/>
       <c r="K3885" s="4"/>
     </row>
+    <row r="3886" spans="1:11">
+      <c r="A3886" t="s">
+        <v>3889</v>
+      </c>
+      <c r="B3886">
+        <v>4200142.28</v>
+      </c>
+      <c r="D3886" s="4"/>
+      <c r="E3886" s="4"/>
+      <c r="F3886" s="4"/>
+      <c r="G3886" s="4"/>
+      <c r="H3886" s="4"/>
+      <c r="I3886" s="4"/>
+      <c r="J3886" s="4"/>
+      <c r="K3886" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3883:K3883"/>
-    <mergeCell ref="D3884:K3885"/>
+    <mergeCell ref="D3884:K3884"/>
+    <mergeCell ref="D3885:K3886"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3892" uniqueCount="3890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3893" uniqueCount="3891">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11684,6 +11684,9 @@
   </si>
   <si>
     <t>7-27-2021</t>
+  </si>
+  <si>
+    <t>7-28-2021</t>
   </si>
 </sst>
 </file>
@@ -11820,122 +11823,122 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3856:$A$3886</c:f>
+              <c:f>DolarToday!$A$3857:$A$3887</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>6-27-2021</c:v>
+                  <c:v>6-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6-28-2021</c:v>
+                  <c:v>6-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6-29-2021</c:v>
+                  <c:v>6-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6-30-2021</c:v>
+                  <c:v>7-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7-1-2021</c:v>
+                  <c:v>7-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7-2-2021</c:v>
+                  <c:v>7-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7-3-2021</c:v>
+                  <c:v>7-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7-4-2021</c:v>
+                  <c:v>7-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7-5-2021</c:v>
+                  <c:v>7-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7-6-2021</c:v>
+                  <c:v>7-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7-7-2021</c:v>
+                  <c:v>7-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7-8-2021</c:v>
+                  <c:v>7-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7-9-2021</c:v>
+                  <c:v>7-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7-10-2021</c:v>
+                  <c:v>7-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7-11-2021</c:v>
+                  <c:v>7-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7-12-2021</c:v>
+                  <c:v>7-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7-13-2021</c:v>
+                  <c:v>7-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7-14-2021</c:v>
+                  <c:v>7-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7-15-2021</c:v>
+                  <c:v>7-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7-16-2021</c:v>
+                  <c:v>7-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7-17-2021</c:v>
+                  <c:v>7-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7-18-2021</c:v>
+                  <c:v>7-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7-19-2021</c:v>
+                  <c:v>7-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7-20-2021</c:v>
+                  <c:v>7-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7-21-2021</c:v>
+                  <c:v>7-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7-22-2021</c:v>
+                  <c:v>7-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7-23-2021</c:v>
+                  <c:v>7-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7-24-2021</c:v>
+                  <c:v>7-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7-25-2021</c:v>
+                  <c:v>7-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7-26-2021</c:v>
+                  <c:v>7-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7-27-2021</c:v>
+                  <c:v>7-28-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3856:$B$3886</c:f>
+              <c:f>DolarToday!$B$3857:$B$3887</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3273013.54</c:v>
+                  <c:v>3259413.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3259413.02</c:v>
+                  <c:v>3267940.03</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3267940.03</c:v>
+                  <c:v>3290130.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3290130.05</c:v>
+                  <c:v>3250012.94</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3250012.94</c:v>
@@ -11950,13 +11953,13 @@
                   <c:v>3250012.94</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3250012.94</c:v>
+                  <c:v>3251735.81</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3251735.81</c:v>
+                  <c:v>3555673.96</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3555673.96</c:v>
+                  <c:v>3306628.55</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>3306628.55</c:v>
@@ -11965,19 +11968,19 @@
                   <c:v>3306628.55</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3306628.55</c:v>
+                  <c:v>3310043.99</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3310043.99</c:v>
+                  <c:v>3350022.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3350022.5</c:v>
+                  <c:v>3425119.54</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3425119.54</c:v>
+                  <c:v>3555323.05</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3555323.05</c:v>
+                  <c:v>3700022.18</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>3700022.18</c:v>
@@ -11986,19 +11989,19 @@
                   <c:v>3700022.18</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3700022.18</c:v>
+                  <c:v>3702021.73</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3702021.73</c:v>
+                  <c:v>3705023.76</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3705023.76</c:v>
+                  <c:v>3790225.82</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3790225.82</c:v>
+                  <c:v>3850301.78</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3850301.78</c:v>
+                  <c:v>4000130.32</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>4000130.32</c:v>
@@ -12007,16 +12010,16 @@
                   <c:v>4000130.32</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4000130.32</c:v>
+                  <c:v>4081047.55</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4081047.55</c:v>
+                  <c:v>4133044.13</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4133044.13</c:v>
+                  <c:v>4200142.28</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4200142.28</c:v>
+                  <c:v>4183013.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12423,7 +12426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3886"/>
+  <dimension ref="A1:K3887"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43531,16 +43534,6 @@
       <c r="B3884">
         <v>4081047.55</v>
       </c>
-      <c r="D3884" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3884" s="3"/>
-      <c r="F3884" s="3"/>
-      <c r="G3884" s="3"/>
-      <c r="H3884" s="3"/>
-      <c r="I3884" s="3"/>
-      <c r="J3884" s="3"/>
-      <c r="K3884" s="3"/>
     </row>
     <row r="3885" spans="1:11">
       <c r="A3885" t="s">
@@ -43549,16 +43542,16 @@
       <c r="B3885">
         <v>4133044.13</v>
       </c>
-      <c r="D3885" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3885" s="4"/>
-      <c r="F3885" s="4"/>
-      <c r="G3885" s="4"/>
-      <c r="H3885" s="4"/>
-      <c r="I3885" s="4"/>
-      <c r="J3885" s="4"/>
-      <c r="K3885" s="4"/>
+      <c r="D3885" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3885" s="3"/>
+      <c r="F3885" s="3"/>
+      <c r="G3885" s="3"/>
+      <c r="H3885" s="3"/>
+      <c r="I3885" s="3"/>
+      <c r="J3885" s="3"/>
+      <c r="K3885" s="3"/>
     </row>
     <row r="3886" spans="1:11">
       <c r="A3886" t="s">
@@ -43567,7 +43560,9 @@
       <c r="B3886">
         <v>4200142.28</v>
       </c>
-      <c r="D3886" s="4"/>
+      <c r="D3886" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3886" s="4"/>
       <c r="F3886" s="4"/>
       <c r="G3886" s="4"/>
@@ -43576,12 +43571,28 @@
       <c r="J3886" s="4"/>
       <c r="K3886" s="4"/>
     </row>
+    <row r="3887" spans="1:11">
+      <c r="A3887" t="s">
+        <v>3890</v>
+      </c>
+      <c r="B3887">
+        <v>4183013.74</v>
+      </c>
+      <c r="D3887" s="4"/>
+      <c r="E3887" s="4"/>
+      <c r="F3887" s="4"/>
+      <c r="G3887" s="4"/>
+      <c r="H3887" s="4"/>
+      <c r="I3887" s="4"/>
+      <c r="J3887" s="4"/>
+      <c r="K3887" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3884:K3884"/>
-    <mergeCell ref="D3885:K3886"/>
+    <mergeCell ref="D3885:K3885"/>
+    <mergeCell ref="D3886:K3887"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3893" uniqueCount="3891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3901" uniqueCount="3899">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11687,6 +11687,30 @@
   </si>
   <si>
     <t>7-28-2021</t>
+  </si>
+  <si>
+    <t>7-29-2021</t>
+  </si>
+  <si>
+    <t>7-30-2021</t>
+  </si>
+  <si>
+    <t>7-31-2021</t>
+  </si>
+  <si>
+    <t>8-1-2021</t>
+  </si>
+  <si>
+    <t>8-2-2021</t>
+  </si>
+  <si>
+    <t>8-3-2021</t>
+  </si>
+  <si>
+    <t>8-4-2021</t>
+  </si>
+  <si>
+    <t>8-5-2021</t>
   </si>
 </sst>
 </file>
@@ -11823,203 +11847,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3857:$A$3887</c:f>
+              <c:f>DolarToday!$A$3865:$A$3895</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>6-28-2021</c:v>
+                  <c:v>7-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6-29-2021</c:v>
+                  <c:v>7-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6-30-2021</c:v>
+                  <c:v>7-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7-1-2021</c:v>
+                  <c:v>7-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7-2-2021</c:v>
+                  <c:v>7-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7-3-2021</c:v>
+                  <c:v>7-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7-4-2021</c:v>
+                  <c:v>7-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7-5-2021</c:v>
+                  <c:v>7-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7-6-2021</c:v>
+                  <c:v>7-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7-7-2021</c:v>
+                  <c:v>7-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7-8-2021</c:v>
+                  <c:v>7-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7-9-2021</c:v>
+                  <c:v>7-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7-10-2021</c:v>
+                  <c:v>7-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7-11-2021</c:v>
+                  <c:v>7-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7-12-2021</c:v>
+                  <c:v>7-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7-13-2021</c:v>
+                  <c:v>7-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7-14-2021</c:v>
+                  <c:v>7-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7-15-2021</c:v>
+                  <c:v>7-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7-16-2021</c:v>
+                  <c:v>7-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7-17-2021</c:v>
+                  <c:v>7-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7-18-2021</c:v>
+                  <c:v>7-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7-19-2021</c:v>
+                  <c:v>7-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7-20-2021</c:v>
+                  <c:v>7-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7-21-2021</c:v>
+                  <c:v>7-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7-22-2021</c:v>
+                  <c:v>7-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7-23-2021</c:v>
+                  <c:v>7-31-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7-24-2021</c:v>
+                  <c:v>8-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7-25-2021</c:v>
+                  <c:v>8-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7-26-2021</c:v>
+                  <c:v>8-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7-27-2021</c:v>
+                  <c:v>8-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7-28-2021</c:v>
+                  <c:v>8-5-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3857:$B$3887</c:f>
+              <c:f>DolarToday!$B$3865:$B$3895</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3259413.02</c:v>
+                  <c:v>3251735.81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3267940.03</c:v>
+                  <c:v>3555673.96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3290130.05</c:v>
+                  <c:v>3306628.55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3250012.94</c:v>
+                  <c:v>3306628.55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3250012.94</c:v>
+                  <c:v>3306628.55</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3250012.94</c:v>
+                  <c:v>3310043.99</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3250012.94</c:v>
+                  <c:v>3350022.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3250012.94</c:v>
+                  <c:v>3425119.54</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3251735.81</c:v>
+                  <c:v>3555323.05</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3555673.96</c:v>
+                  <c:v>3700022.18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3306628.55</c:v>
+                  <c:v>3700022.18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3306628.55</c:v>
+                  <c:v>3700022.18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3306628.55</c:v>
+                  <c:v>3702021.73</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3310043.99</c:v>
+                  <c:v>3705023.76</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3350022.5</c:v>
+                  <c:v>3790225.82</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3425119.54</c:v>
+                  <c:v>3850301.78</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3555323.05</c:v>
+                  <c:v>4000130.32</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3700022.18</c:v>
+                  <c:v>4000130.32</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3700022.18</c:v>
+                  <c:v>4000130.32</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3700022.18</c:v>
+                  <c:v>4081047.55</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3702021.73</c:v>
+                  <c:v>4133044.13</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3705023.76</c:v>
+                  <c:v>4200142.28</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3790225.82</c:v>
+                  <c:v>4183013.74</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3850301.78</c:v>
+                  <c:v>4139112.34</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4000130.32</c:v>
+                  <c:v>4139112.34</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4000130.32</c:v>
+                  <c:v>4139112.34</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4000130.32</c:v>
+                  <c:v>4133529.92</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4081047.55</c:v>
+                  <c:v>4120043.78</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4133044.13</c:v>
+                  <c:v>4090523.82</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4200142.28</c:v>
+                  <c:v>4060133.05</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4183013.74</c:v>
+                  <c:v>4104842.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12426,7 +12450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3887"/>
+  <dimension ref="A1:K3895"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43439,7 +43463,7 @@
         <v>3425119.54</v>
       </c>
     </row>
-    <row r="3873" spans="1:11">
+    <row r="3873" spans="1:2">
       <c r="A3873" t="s">
         <v>3876</v>
       </c>
@@ -43447,7 +43471,7 @@
         <v>3555323.05</v>
       </c>
     </row>
-    <row r="3874" spans="1:11">
+    <row r="3874" spans="1:2">
       <c r="A3874" t="s">
         <v>3877</v>
       </c>
@@ -43455,7 +43479,7 @@
         <v>3700022.18</v>
       </c>
     </row>
-    <row r="3875" spans="1:11">
+    <row r="3875" spans="1:2">
       <c r="A3875" t="s">
         <v>3878</v>
       </c>
@@ -43463,7 +43487,7 @@
         <v>3700022.18</v>
       </c>
     </row>
-    <row r="3876" spans="1:11">
+    <row r="3876" spans="1:2">
       <c r="A3876" t="s">
         <v>3879</v>
       </c>
@@ -43471,7 +43495,7 @@
         <v>3700022.18</v>
       </c>
     </row>
-    <row r="3877" spans="1:11">
+    <row r="3877" spans="1:2">
       <c r="A3877" t="s">
         <v>3880</v>
       </c>
@@ -43479,7 +43503,7 @@
         <v>3702021.73</v>
       </c>
     </row>
-    <row r="3878" spans="1:11">
+    <row r="3878" spans="1:2">
       <c r="A3878" t="s">
         <v>3881</v>
       </c>
@@ -43487,7 +43511,7 @@
         <v>3705023.76</v>
       </c>
     </row>
-    <row r="3879" spans="1:11">
+    <row r="3879" spans="1:2">
       <c r="A3879" t="s">
         <v>3882</v>
       </c>
@@ -43495,7 +43519,7 @@
         <v>3790225.82</v>
       </c>
     </row>
-    <row r="3880" spans="1:11">
+    <row r="3880" spans="1:2">
       <c r="A3880" t="s">
         <v>3883</v>
       </c>
@@ -43503,7 +43527,7 @@
         <v>3850301.78</v>
       </c>
     </row>
-    <row r="3881" spans="1:11">
+    <row r="3881" spans="1:2">
       <c r="A3881" t="s">
         <v>3884</v>
       </c>
@@ -43511,7 +43535,7 @@
         <v>4000130.32</v>
       </c>
     </row>
-    <row r="3882" spans="1:11">
+    <row r="3882" spans="1:2">
       <c r="A3882" t="s">
         <v>3885</v>
       </c>
@@ -43519,7 +43543,7 @@
         <v>4000130.32</v>
       </c>
     </row>
-    <row r="3883" spans="1:11">
+    <row r="3883" spans="1:2">
       <c r="A3883" t="s">
         <v>3886</v>
       </c>
@@ -43527,7 +43551,7 @@
         <v>4000130.32</v>
       </c>
     </row>
-    <row r="3884" spans="1:11">
+    <row r="3884" spans="1:2">
       <c r="A3884" t="s">
         <v>3887</v>
       </c>
@@ -43535,64 +43559,128 @@
         <v>4081047.55</v>
       </c>
     </row>
-    <row r="3885" spans="1:11">
+    <row r="3885" spans="1:2">
       <c r="A3885" t="s">
         <v>3888</v>
       </c>
       <c r="B3885">
         <v>4133044.13</v>
       </c>
-      <c r="D3885" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3885" s="3"/>
-      <c r="F3885" s="3"/>
-      <c r="G3885" s="3"/>
-      <c r="H3885" s="3"/>
-      <c r="I3885" s="3"/>
-      <c r="J3885" s="3"/>
-      <c r="K3885" s="3"/>
-    </row>
-    <row r="3886" spans="1:11">
+    </row>
+    <row r="3886" spans="1:2">
       <c r="A3886" t="s">
         <v>3889</v>
       </c>
       <c r="B3886">
         <v>4200142.28</v>
       </c>
-      <c r="D3886" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3886" s="4"/>
-      <c r="F3886" s="4"/>
-      <c r="G3886" s="4"/>
-      <c r="H3886" s="4"/>
-      <c r="I3886" s="4"/>
-      <c r="J3886" s="4"/>
-      <c r="K3886" s="4"/>
-    </row>
-    <row r="3887" spans="1:11">
+    </row>
+    <row r="3887" spans="1:2">
       <c r="A3887" t="s">
         <v>3890</v>
       </c>
       <c r="B3887">
         <v>4183013.74</v>
       </c>
-      <c r="D3887" s="4"/>
-      <c r="E3887" s="4"/>
-      <c r="F3887" s="4"/>
-      <c r="G3887" s="4"/>
-      <c r="H3887" s="4"/>
-      <c r="I3887" s="4"/>
-      <c r="J3887" s="4"/>
-      <c r="K3887" s="4"/>
+    </row>
+    <row r="3888" spans="1:2">
+      <c r="A3888" t="s">
+        <v>3891</v>
+      </c>
+      <c r="B3888">
+        <v>4139112.34</v>
+      </c>
+    </row>
+    <row r="3889" spans="1:11">
+      <c r="A3889" t="s">
+        <v>3892</v>
+      </c>
+      <c r="B3889">
+        <v>4139112.34</v>
+      </c>
+    </row>
+    <row r="3890" spans="1:11">
+      <c r="A3890" t="s">
+        <v>3893</v>
+      </c>
+      <c r="B3890">
+        <v>4139112.34</v>
+      </c>
+    </row>
+    <row r="3891" spans="1:11">
+      <c r="A3891" t="s">
+        <v>3894</v>
+      </c>
+      <c r="B3891">
+        <v>4133529.92</v>
+      </c>
+    </row>
+    <row r="3892" spans="1:11">
+      <c r="A3892" t="s">
+        <v>3895</v>
+      </c>
+      <c r="B3892">
+        <v>4120043.78</v>
+      </c>
+    </row>
+    <row r="3893" spans="1:11">
+      <c r="A3893" t="s">
+        <v>3896</v>
+      </c>
+      <c r="B3893">
+        <v>4090523.82</v>
+      </c>
+      <c r="D3893" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3893" s="3"/>
+      <c r="F3893" s="3"/>
+      <c r="G3893" s="3"/>
+      <c r="H3893" s="3"/>
+      <c r="I3893" s="3"/>
+      <c r="J3893" s="3"/>
+      <c r="K3893" s="3"/>
+    </row>
+    <row r="3894" spans="1:11">
+      <c r="A3894" t="s">
+        <v>3897</v>
+      </c>
+      <c r="B3894">
+        <v>4060133.05</v>
+      </c>
+      <c r="D3894" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3894" s="4"/>
+      <c r="F3894" s="4"/>
+      <c r="G3894" s="4"/>
+      <c r="H3894" s="4"/>
+      <c r="I3894" s="4"/>
+      <c r="J3894" s="4"/>
+      <c r="K3894" s="4"/>
+    </row>
+    <row r="3895" spans="1:11">
+      <c r="A3895" t="s">
+        <v>3898</v>
+      </c>
+      <c r="B3895">
+        <v>4104842.85</v>
+      </c>
+      <c r="D3895" s="4"/>
+      <c r="E3895" s="4"/>
+      <c r="F3895" s="4"/>
+      <c r="G3895" s="4"/>
+      <c r="H3895" s="4"/>
+      <c r="I3895" s="4"/>
+      <c r="J3895" s="4"/>
+      <c r="K3895" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3885:K3885"/>
-    <mergeCell ref="D3886:K3887"/>
+    <mergeCell ref="D3893:K3893"/>
+    <mergeCell ref="D3894:K3895"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3901" uniqueCount="3899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3904" uniqueCount="3902">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11711,6 +11711,15 @@
   </si>
   <si>
     <t>8-5-2021</t>
+  </si>
+  <si>
+    <t>8-6-2021</t>
+  </si>
+  <si>
+    <t>8-7-2021</t>
+  </si>
+  <si>
+    <t>8-8-2021</t>
   </si>
 </sst>
 </file>
@@ -11847,203 +11856,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3865:$A$3895</c:f>
+              <c:f>DolarToday!$A$3868:$A$3898</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>7-6-2021</c:v>
+                  <c:v>7-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7-7-2021</c:v>
+                  <c:v>7-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7-8-2021</c:v>
+                  <c:v>7-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7-9-2021</c:v>
+                  <c:v>7-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7-10-2021</c:v>
+                  <c:v>7-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7-11-2021</c:v>
+                  <c:v>7-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7-12-2021</c:v>
+                  <c:v>7-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7-13-2021</c:v>
+                  <c:v>7-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7-14-2021</c:v>
+                  <c:v>7-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7-15-2021</c:v>
+                  <c:v>7-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7-16-2021</c:v>
+                  <c:v>7-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7-17-2021</c:v>
+                  <c:v>7-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7-18-2021</c:v>
+                  <c:v>7-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7-19-2021</c:v>
+                  <c:v>7-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7-20-2021</c:v>
+                  <c:v>7-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7-21-2021</c:v>
+                  <c:v>7-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7-22-2021</c:v>
+                  <c:v>7-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7-23-2021</c:v>
+                  <c:v>7-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7-24-2021</c:v>
+                  <c:v>7-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7-25-2021</c:v>
+                  <c:v>7-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7-26-2021</c:v>
+                  <c:v>7-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7-27-2021</c:v>
+                  <c:v>7-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7-28-2021</c:v>
+                  <c:v>7-31-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7-29-2021</c:v>
+                  <c:v>8-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7-30-2021</c:v>
+                  <c:v>8-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7-31-2021</c:v>
+                  <c:v>8-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8-1-2021</c:v>
+                  <c:v>8-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8-2-2021</c:v>
+                  <c:v>8-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8-3-2021</c:v>
+                  <c:v>8-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8-4-2021</c:v>
+                  <c:v>8-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8-5-2021</c:v>
+                  <c:v>8-8-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3865:$B$3895</c:f>
+              <c:f>DolarToday!$B$3868:$B$3898</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3251735.81</c:v>
+                  <c:v>3306628.55</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3555673.96</c:v>
+                  <c:v>3306628.55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3306628.55</c:v>
+                  <c:v>3310043.99</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3306628.55</c:v>
+                  <c:v>3350022.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3306628.55</c:v>
+                  <c:v>3425119.54</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3310043.99</c:v>
+                  <c:v>3555323.05</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3350022.5</c:v>
+                  <c:v>3700022.18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3425119.54</c:v>
+                  <c:v>3700022.18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3555323.05</c:v>
+                  <c:v>3700022.18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3700022.18</c:v>
+                  <c:v>3702021.73</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3700022.18</c:v>
+                  <c:v>3705023.76</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3700022.18</c:v>
+                  <c:v>3790225.82</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3702021.73</c:v>
+                  <c:v>3850301.78</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3705023.76</c:v>
+                  <c:v>4000130.32</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3790225.82</c:v>
+                  <c:v>4000130.32</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3850301.78</c:v>
+                  <c:v>4000130.32</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4000130.32</c:v>
+                  <c:v>4081047.55</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4000130.32</c:v>
+                  <c:v>4133044.13</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4000130.32</c:v>
+                  <c:v>4200142.28</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4081047.55</c:v>
+                  <c:v>4183013.74</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4133044.13</c:v>
+                  <c:v>4139112.34</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4200142.28</c:v>
+                  <c:v>4139112.34</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4183013.74</c:v>
+                  <c:v>4139112.34</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4139112.34</c:v>
+                  <c:v>4133529.92</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4139112.34</c:v>
+                  <c:v>4120043.78</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4139112.34</c:v>
+                  <c:v>4090523.82</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4133529.92</c:v>
+                  <c:v>4060133.05</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4120043.78</c:v>
+                  <c:v>4104842.85</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4090523.82</c:v>
+                  <c:v>4104842.85</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4060133.05</c:v>
+                  <c:v>4104842.85</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4104842.85</c:v>
+                  <c:v>4120053.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12450,7 +12459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3895"/>
+  <dimension ref="A1:K3898"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43630,16 +43639,6 @@
       <c r="B3893">
         <v>4090523.82</v>
       </c>
-      <c r="D3893" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3893" s="3"/>
-      <c r="F3893" s="3"/>
-      <c r="G3893" s="3"/>
-      <c r="H3893" s="3"/>
-      <c r="I3893" s="3"/>
-      <c r="J3893" s="3"/>
-      <c r="K3893" s="3"/>
     </row>
     <row r="3894" spans="1:11">
       <c r="A3894" t="s">
@@ -43648,16 +43647,6 @@
       <c r="B3894">
         <v>4060133.05</v>
       </c>
-      <c r="D3894" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3894" s="4"/>
-      <c r="F3894" s="4"/>
-      <c r="G3894" s="4"/>
-      <c r="H3894" s="4"/>
-      <c r="I3894" s="4"/>
-      <c r="J3894" s="4"/>
-      <c r="K3894" s="4"/>
     </row>
     <row r="3895" spans="1:11">
       <c r="A3895" t="s">
@@ -43666,21 +43655,65 @@
       <c r="B3895">
         <v>4104842.85</v>
       </c>
-      <c r="D3895" s="4"/>
-      <c r="E3895" s="4"/>
-      <c r="F3895" s="4"/>
-      <c r="G3895" s="4"/>
-      <c r="H3895" s="4"/>
-      <c r="I3895" s="4"/>
-      <c r="J3895" s="4"/>
-      <c r="K3895" s="4"/>
+    </row>
+    <row r="3896" spans="1:11">
+      <c r="A3896" t="s">
+        <v>3899</v>
+      </c>
+      <c r="B3896">
+        <v>4104842.85</v>
+      </c>
+      <c r="D3896" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3896" s="3"/>
+      <c r="F3896" s="3"/>
+      <c r="G3896" s="3"/>
+      <c r="H3896" s="3"/>
+      <c r="I3896" s="3"/>
+      <c r="J3896" s="3"/>
+      <c r="K3896" s="3"/>
+    </row>
+    <row r="3897" spans="1:11">
+      <c r="A3897" t="s">
+        <v>3900</v>
+      </c>
+      <c r="B3897">
+        <v>4104842.85</v>
+      </c>
+      <c r="D3897" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3897" s="4"/>
+      <c r="F3897" s="4"/>
+      <c r="G3897" s="4"/>
+      <c r="H3897" s="4"/>
+      <c r="I3897" s="4"/>
+      <c r="J3897" s="4"/>
+      <c r="K3897" s="4"/>
+    </row>
+    <row r="3898" spans="1:11">
+      <c r="A3898" t="s">
+        <v>3901</v>
+      </c>
+      <c r="B3898">
+        <v>4120053.81</v>
+      </c>
+      <c r="D3898" s="4"/>
+      <c r="E3898" s="4"/>
+      <c r="F3898" s="4"/>
+      <c r="G3898" s="4"/>
+      <c r="H3898" s="4"/>
+      <c r="I3898" s="4"/>
+      <c r="J3898" s="4"/>
+      <c r="K3898" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3893:K3893"/>
-    <mergeCell ref="D3894:K3895"/>
+    <mergeCell ref="D3896:K3896"/>
+    <mergeCell ref="D3897:K3898"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3904" uniqueCount="3902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3906" uniqueCount="3904">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11720,6 +11720,12 @@
   </si>
   <si>
     <t>8-8-2021</t>
+  </si>
+  <si>
+    <t>8-9-2021</t>
+  </si>
+  <si>
+    <t>8-10-2021</t>
   </si>
 </sst>
 </file>
@@ -11856,203 +11862,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3868:$A$3898</c:f>
+              <c:f>DolarToday!$A$3870:$A$3900</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>7-9-2021</c:v>
+                  <c:v>7-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7-10-2021</c:v>
+                  <c:v>7-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7-11-2021</c:v>
+                  <c:v>7-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7-12-2021</c:v>
+                  <c:v>7-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7-13-2021</c:v>
+                  <c:v>7-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7-14-2021</c:v>
+                  <c:v>7-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7-15-2021</c:v>
+                  <c:v>7-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7-16-2021</c:v>
+                  <c:v>7-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7-17-2021</c:v>
+                  <c:v>7-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7-18-2021</c:v>
+                  <c:v>7-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7-19-2021</c:v>
+                  <c:v>7-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7-20-2021</c:v>
+                  <c:v>7-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7-21-2021</c:v>
+                  <c:v>7-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7-22-2021</c:v>
+                  <c:v>7-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7-23-2021</c:v>
+                  <c:v>7-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7-24-2021</c:v>
+                  <c:v>7-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7-25-2021</c:v>
+                  <c:v>7-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7-26-2021</c:v>
+                  <c:v>7-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7-27-2021</c:v>
+                  <c:v>7-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7-28-2021</c:v>
+                  <c:v>7-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7-29-2021</c:v>
+                  <c:v>7-31-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7-30-2021</c:v>
+                  <c:v>8-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7-31-2021</c:v>
+                  <c:v>8-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8-1-2021</c:v>
+                  <c:v>8-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8-2-2021</c:v>
+                  <c:v>8-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8-3-2021</c:v>
+                  <c:v>8-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8-4-2021</c:v>
+                  <c:v>8-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8-5-2021</c:v>
+                  <c:v>8-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8-6-2021</c:v>
+                  <c:v>8-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8-7-2021</c:v>
+                  <c:v>8-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8-8-2021</c:v>
+                  <c:v>8-10-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3868:$B$3898</c:f>
+              <c:f>DolarToday!$B$3870:$B$3900</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3306628.55</c:v>
+                  <c:v>3310043.99</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3306628.55</c:v>
+                  <c:v>3350022.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3310043.99</c:v>
+                  <c:v>3425119.54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3350022.5</c:v>
+                  <c:v>3555323.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3425119.54</c:v>
+                  <c:v>3700022.18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3555323.05</c:v>
+                  <c:v>3700022.18</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3700022.18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3700022.18</c:v>
+                  <c:v>3702021.73</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3700022.18</c:v>
+                  <c:v>3705023.76</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3702021.73</c:v>
+                  <c:v>3790225.82</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3705023.76</c:v>
+                  <c:v>3850301.78</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3790225.82</c:v>
+                  <c:v>4000130.32</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3850301.78</c:v>
+                  <c:v>4000130.32</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>4000130.32</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4000130.32</c:v>
+                  <c:v>4081047.55</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4000130.32</c:v>
+                  <c:v>4133044.13</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4081047.55</c:v>
+                  <c:v>4200142.28</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4133044.13</c:v>
+                  <c:v>4183013.74</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4200142.28</c:v>
+                  <c:v>4139112.34</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4183013.74</c:v>
+                  <c:v>4139112.34</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>4139112.34</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4139112.34</c:v>
+                  <c:v>4133529.92</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4139112.34</c:v>
+                  <c:v>4120043.78</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4133529.92</c:v>
+                  <c:v>4090523.82</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4120043.78</c:v>
+                  <c:v>4060133.05</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4090523.82</c:v>
+                  <c:v>4104842.85</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4060133.05</c:v>
+                  <c:v>4104842.85</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>4104842.85</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4104842.85</c:v>
+                  <c:v>4120053.81</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4104842.85</c:v>
+                  <c:v>4127055.62</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4120053.81</c:v>
+                  <c:v>4150522.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12459,7 +12465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3898"/>
+  <dimension ref="A1:K3900"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43663,16 +43669,6 @@
       <c r="B3896">
         <v>4104842.85</v>
       </c>
-      <c r="D3896" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3896" s="3"/>
-      <c r="F3896" s="3"/>
-      <c r="G3896" s="3"/>
-      <c r="H3896" s="3"/>
-      <c r="I3896" s="3"/>
-      <c r="J3896" s="3"/>
-      <c r="K3896" s="3"/>
     </row>
     <row r="3897" spans="1:11">
       <c r="A3897" t="s">
@@ -43681,16 +43677,6 @@
       <c r="B3897">
         <v>4104842.85</v>
       </c>
-      <c r="D3897" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3897" s="4"/>
-      <c r="F3897" s="4"/>
-      <c r="G3897" s="4"/>
-      <c r="H3897" s="4"/>
-      <c r="I3897" s="4"/>
-      <c r="J3897" s="4"/>
-      <c r="K3897" s="4"/>
     </row>
     <row r="3898" spans="1:11">
       <c r="A3898" t="s">
@@ -43699,21 +43685,57 @@
       <c r="B3898">
         <v>4120053.81</v>
       </c>
-      <c r="D3898" s="4"/>
-      <c r="E3898" s="4"/>
-      <c r="F3898" s="4"/>
-      <c r="G3898" s="4"/>
-      <c r="H3898" s="4"/>
-      <c r="I3898" s="4"/>
-      <c r="J3898" s="4"/>
-      <c r="K3898" s="4"/>
+      <c r="D3898" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3898" s="3"/>
+      <c r="F3898" s="3"/>
+      <c r="G3898" s="3"/>
+      <c r="H3898" s="3"/>
+      <c r="I3898" s="3"/>
+      <c r="J3898" s="3"/>
+      <c r="K3898" s="3"/>
+    </row>
+    <row r="3899" spans="1:11">
+      <c r="A3899" t="s">
+        <v>3902</v>
+      </c>
+      <c r="B3899">
+        <v>4127055.62</v>
+      </c>
+      <c r="D3899" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3899" s="4"/>
+      <c r="F3899" s="4"/>
+      <c r="G3899" s="4"/>
+      <c r="H3899" s="4"/>
+      <c r="I3899" s="4"/>
+      <c r="J3899" s="4"/>
+      <c r="K3899" s="4"/>
+    </row>
+    <row r="3900" spans="1:11">
+      <c r="A3900" t="s">
+        <v>3903</v>
+      </c>
+      <c r="B3900">
+        <v>4150522.91</v>
+      </c>
+      <c r="D3900" s="4"/>
+      <c r="E3900" s="4"/>
+      <c r="F3900" s="4"/>
+      <c r="G3900" s="4"/>
+      <c r="H3900" s="4"/>
+      <c r="I3900" s="4"/>
+      <c r="J3900" s="4"/>
+      <c r="K3900" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3896:K3896"/>
-    <mergeCell ref="D3897:K3898"/>
+    <mergeCell ref="D3898:K3898"/>
+    <mergeCell ref="D3899:K3900"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3906" uniqueCount="3904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3912" uniqueCount="3910">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11726,6 +11726,24 @@
   </si>
   <si>
     <t>8-10-2021</t>
+  </si>
+  <si>
+    <t>8-11-2021</t>
+  </si>
+  <si>
+    <t>8-12-2021</t>
+  </si>
+  <si>
+    <t>8-13-2021</t>
+  </si>
+  <si>
+    <t>8-14-2021</t>
+  </si>
+  <si>
+    <t>8-15-2021</t>
+  </si>
+  <si>
+    <t>8-16-2021</t>
   </si>
 </sst>
 </file>
@@ -11862,203 +11880,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3870:$A$3900</c:f>
+              <c:f>DolarToday!$A$3876:$A$3906</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>7-11-2021</c:v>
+                  <c:v>7-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7-12-2021</c:v>
+                  <c:v>7-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7-13-2021</c:v>
+                  <c:v>7-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7-14-2021</c:v>
+                  <c:v>7-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7-15-2021</c:v>
+                  <c:v>7-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7-16-2021</c:v>
+                  <c:v>7-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7-17-2021</c:v>
+                  <c:v>7-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7-18-2021</c:v>
+                  <c:v>7-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7-19-2021</c:v>
+                  <c:v>7-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7-20-2021</c:v>
+                  <c:v>7-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7-21-2021</c:v>
+                  <c:v>7-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7-22-2021</c:v>
+                  <c:v>7-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7-23-2021</c:v>
+                  <c:v>7-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7-24-2021</c:v>
+                  <c:v>7-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7-25-2021</c:v>
+                  <c:v>7-31-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7-26-2021</c:v>
+                  <c:v>8-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7-27-2021</c:v>
+                  <c:v>8-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7-28-2021</c:v>
+                  <c:v>8-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7-29-2021</c:v>
+                  <c:v>8-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7-30-2021</c:v>
+                  <c:v>8-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7-31-2021</c:v>
+                  <c:v>8-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8-1-2021</c:v>
+                  <c:v>8-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8-2-2021</c:v>
+                  <c:v>8-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8-3-2021</c:v>
+                  <c:v>8-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8-4-2021</c:v>
+                  <c:v>8-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8-5-2021</c:v>
+                  <c:v>8-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8-6-2021</c:v>
+                  <c:v>8-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8-7-2021</c:v>
+                  <c:v>8-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8-8-2021</c:v>
+                  <c:v>8-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8-9-2021</c:v>
+                  <c:v>8-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8-10-2021</c:v>
+                  <c:v>8-16-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3870:$B$3900</c:f>
+              <c:f>DolarToday!$B$3876:$B$3906</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3310043.99</c:v>
+                  <c:v>3700022.18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3350022.5</c:v>
+                  <c:v>3702021.73</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3425119.54</c:v>
+                  <c:v>3705023.76</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3555323.05</c:v>
+                  <c:v>3790225.82</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3700022.18</c:v>
+                  <c:v>3850301.78</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3700022.18</c:v>
+                  <c:v>4000130.32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3700022.18</c:v>
+                  <c:v>4000130.32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3702021.73</c:v>
+                  <c:v>4000130.32</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3705023.76</c:v>
+                  <c:v>4081047.55</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3790225.82</c:v>
+                  <c:v>4133044.13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3850301.78</c:v>
+                  <c:v>4200142.28</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4000130.32</c:v>
+                  <c:v>4183013.74</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4000130.32</c:v>
+                  <c:v>4139112.34</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4000130.32</c:v>
+                  <c:v>4139112.34</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4081047.55</c:v>
+                  <c:v>4139112.34</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4133044.13</c:v>
+                  <c:v>4133529.92</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4200142.28</c:v>
+                  <c:v>4120043.78</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4183013.74</c:v>
+                  <c:v>4090523.82</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4139112.34</c:v>
+                  <c:v>4060133.05</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4139112.34</c:v>
+                  <c:v>4104842.85</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4139112.34</c:v>
+                  <c:v>4104842.85</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4133529.92</c:v>
+                  <c:v>4104842.85</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4120043.78</c:v>
+                  <c:v>4120053.81</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4090523.82</c:v>
+                  <c:v>4127055.62</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4060133.05</c:v>
+                  <c:v>4150522.91</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4104842.85</c:v>
+                  <c:v>4146011.83</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4104842.85</c:v>
+                  <c:v>4140112.32</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4104842.85</c:v>
+                  <c:v>4140112.32</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4120053.81</c:v>
+                  <c:v>4140112.32</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4127055.62</c:v>
+                  <c:v>4145632.48</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4150522.91</c:v>
+                  <c:v>4138022.71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12465,7 +12483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3900"/>
+  <dimension ref="A1:K3906"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43685,16 +43703,6 @@
       <c r="B3898">
         <v>4120053.81</v>
       </c>
-      <c r="D3898" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3898" s="3"/>
-      <c r="F3898" s="3"/>
-      <c r="G3898" s="3"/>
-      <c r="H3898" s="3"/>
-      <c r="I3898" s="3"/>
-      <c r="J3898" s="3"/>
-      <c r="K3898" s="3"/>
     </row>
     <row r="3899" spans="1:11">
       <c r="A3899" t="s">
@@ -43703,16 +43711,6 @@
       <c r="B3899">
         <v>4127055.62</v>
       </c>
-      <c r="D3899" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3899" s="4"/>
-      <c r="F3899" s="4"/>
-      <c r="G3899" s="4"/>
-      <c r="H3899" s="4"/>
-      <c r="I3899" s="4"/>
-      <c r="J3899" s="4"/>
-      <c r="K3899" s="4"/>
     </row>
     <row r="3900" spans="1:11">
       <c r="A3900" t="s">
@@ -43721,21 +43719,89 @@
       <c r="B3900">
         <v>4150522.91</v>
       </c>
-      <c r="D3900" s="4"/>
-      <c r="E3900" s="4"/>
-      <c r="F3900" s="4"/>
-      <c r="G3900" s="4"/>
-      <c r="H3900" s="4"/>
-      <c r="I3900" s="4"/>
-      <c r="J3900" s="4"/>
-      <c r="K3900" s="4"/>
+    </row>
+    <row r="3901" spans="1:11">
+      <c r="A3901" t="s">
+        <v>3904</v>
+      </c>
+      <c r="B3901">
+        <v>4146011.83</v>
+      </c>
+    </row>
+    <row r="3902" spans="1:11">
+      <c r="A3902" t="s">
+        <v>3905</v>
+      </c>
+      <c r="B3902">
+        <v>4140112.32</v>
+      </c>
+    </row>
+    <row r="3903" spans="1:11">
+      <c r="A3903" t="s">
+        <v>3906</v>
+      </c>
+      <c r="B3903">
+        <v>4140112.32</v>
+      </c>
+    </row>
+    <row r="3904" spans="1:11">
+      <c r="A3904" t="s">
+        <v>3907</v>
+      </c>
+      <c r="B3904">
+        <v>4140112.32</v>
+      </c>
+      <c r="D3904" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3904" s="3"/>
+      <c r="F3904" s="3"/>
+      <c r="G3904" s="3"/>
+      <c r="H3904" s="3"/>
+      <c r="I3904" s="3"/>
+      <c r="J3904" s="3"/>
+      <c r="K3904" s="3"/>
+    </row>
+    <row r="3905" spans="1:11">
+      <c r="A3905" t="s">
+        <v>3908</v>
+      </c>
+      <c r="B3905">
+        <v>4145632.48</v>
+      </c>
+      <c r="D3905" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3905" s="4"/>
+      <c r="F3905" s="4"/>
+      <c r="G3905" s="4"/>
+      <c r="H3905" s="4"/>
+      <c r="I3905" s="4"/>
+      <c r="J3905" s="4"/>
+      <c r="K3905" s="4"/>
+    </row>
+    <row r="3906" spans="1:11">
+      <c r="A3906" t="s">
+        <v>3909</v>
+      </c>
+      <c r="B3906">
+        <v>4138022.71</v>
+      </c>
+      <c r="D3906" s="4"/>
+      <c r="E3906" s="4"/>
+      <c r="F3906" s="4"/>
+      <c r="G3906" s="4"/>
+      <c r="H3906" s="4"/>
+      <c r="I3906" s="4"/>
+      <c r="J3906" s="4"/>
+      <c r="K3906" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3898:K3898"/>
-    <mergeCell ref="D3899:K3900"/>
+    <mergeCell ref="D3904:K3904"/>
+    <mergeCell ref="D3905:K3906"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3912" uniqueCount="3910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3915" uniqueCount="3913">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11744,6 +11744,15 @@
   </si>
   <si>
     <t>8-16-2021</t>
+  </si>
+  <si>
+    <t>8-17-2021</t>
+  </si>
+  <si>
+    <t>8-18-2021</t>
+  </si>
+  <si>
+    <t>8-19-2021</t>
   </si>
 </sst>
 </file>
@@ -11880,203 +11889,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3876:$A$3906</c:f>
+              <c:f>DolarToday!$A$3879:$A$3909</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>7-17-2021</c:v>
+                  <c:v>7-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7-18-2021</c:v>
+                  <c:v>7-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7-19-2021</c:v>
+                  <c:v>7-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7-20-2021</c:v>
+                  <c:v>7-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7-21-2021</c:v>
+                  <c:v>7-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7-22-2021</c:v>
+                  <c:v>7-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7-23-2021</c:v>
+                  <c:v>7-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7-24-2021</c:v>
+                  <c:v>7-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7-25-2021</c:v>
+                  <c:v>7-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7-26-2021</c:v>
+                  <c:v>7-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7-27-2021</c:v>
+                  <c:v>7-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7-28-2021</c:v>
+                  <c:v>7-31-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7-29-2021</c:v>
+                  <c:v>8-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7-30-2021</c:v>
+                  <c:v>8-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7-31-2021</c:v>
+                  <c:v>8-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8-1-2021</c:v>
+                  <c:v>8-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8-2-2021</c:v>
+                  <c:v>8-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8-3-2021</c:v>
+                  <c:v>8-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8-4-2021</c:v>
+                  <c:v>8-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8-5-2021</c:v>
+                  <c:v>8-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8-6-2021</c:v>
+                  <c:v>8-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8-7-2021</c:v>
+                  <c:v>8-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8-8-2021</c:v>
+                  <c:v>8-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8-9-2021</c:v>
+                  <c:v>8-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8-10-2021</c:v>
+                  <c:v>8-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8-11-2021</c:v>
+                  <c:v>8-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8-12-2021</c:v>
+                  <c:v>8-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8-13-2021</c:v>
+                  <c:v>8-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8-14-2021</c:v>
+                  <c:v>8-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8-15-2021</c:v>
+                  <c:v>8-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8-16-2021</c:v>
+                  <c:v>8-19-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3876:$B$3906</c:f>
+              <c:f>DolarToday!$B$3879:$B$3909</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3700022.18</c:v>
+                  <c:v>3790225.82</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3702021.73</c:v>
+                  <c:v>3850301.78</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3705023.76</c:v>
+                  <c:v>4000130.32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3790225.82</c:v>
+                  <c:v>4000130.32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3850301.78</c:v>
+                  <c:v>4000130.32</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4000130.32</c:v>
+                  <c:v>4081047.55</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000130.32</c:v>
+                  <c:v>4133044.13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4000130.32</c:v>
+                  <c:v>4200142.28</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4081047.55</c:v>
+                  <c:v>4183013.74</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4133044.13</c:v>
+                  <c:v>4139112.34</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4200142.28</c:v>
+                  <c:v>4139112.34</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4183013.74</c:v>
+                  <c:v>4139112.34</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4139112.34</c:v>
+                  <c:v>4133529.92</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4139112.34</c:v>
+                  <c:v>4120043.78</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4139112.34</c:v>
+                  <c:v>4090523.82</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4133529.92</c:v>
+                  <c:v>4060133.05</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4120043.78</c:v>
+                  <c:v>4104842.85</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4090523.82</c:v>
+                  <c:v>4104842.85</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4060133.05</c:v>
+                  <c:v>4104842.85</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4104842.85</c:v>
+                  <c:v>4120053.81</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4104842.85</c:v>
+                  <c:v>4127055.62</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4104842.85</c:v>
+                  <c:v>4150522.91</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4120053.81</c:v>
+                  <c:v>4146011.83</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4127055.62</c:v>
+                  <c:v>4140112.32</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4150522.91</c:v>
+                  <c:v>4140112.32</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4146011.83</c:v>
+                  <c:v>4140112.32</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4140112.32</c:v>
+                  <c:v>4145632.48</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4140112.32</c:v>
+                  <c:v>4138022.71</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4140112.32</c:v>
+                  <c:v>4142050.55</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4145632.48</c:v>
+                  <c:v>4142988.77</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4138022.71</c:v>
+                  <c:v>4129102.09</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12483,7 +12492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3906"/>
+  <dimension ref="A1:K3909"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43624,7 +43633,7 @@
         <v>4139112.34</v>
       </c>
     </row>
-    <row r="3889" spans="1:11">
+    <row r="3889" spans="1:2">
       <c r="A3889" t="s">
         <v>3892</v>
       </c>
@@ -43632,7 +43641,7 @@
         <v>4139112.34</v>
       </c>
     </row>
-    <row r="3890" spans="1:11">
+    <row r="3890" spans="1:2">
       <c r="A3890" t="s">
         <v>3893</v>
       </c>
@@ -43640,7 +43649,7 @@
         <v>4139112.34</v>
       </c>
     </row>
-    <row r="3891" spans="1:11">
+    <row r="3891" spans="1:2">
       <c r="A3891" t="s">
         <v>3894</v>
       </c>
@@ -43648,7 +43657,7 @@
         <v>4133529.92</v>
       </c>
     </row>
-    <row r="3892" spans="1:11">
+    <row r="3892" spans="1:2">
       <c r="A3892" t="s">
         <v>3895</v>
       </c>
@@ -43656,7 +43665,7 @@
         <v>4120043.78</v>
       </c>
     </row>
-    <row r="3893" spans="1:11">
+    <row r="3893" spans="1:2">
       <c r="A3893" t="s">
         <v>3896</v>
       </c>
@@ -43664,7 +43673,7 @@
         <v>4090523.82</v>
       </c>
     </row>
-    <row r="3894" spans="1:11">
+    <row r="3894" spans="1:2">
       <c r="A3894" t="s">
         <v>3897</v>
       </c>
@@ -43672,7 +43681,7 @@
         <v>4060133.05</v>
       </c>
     </row>
-    <row r="3895" spans="1:11">
+    <row r="3895" spans="1:2">
       <c r="A3895" t="s">
         <v>3898</v>
       </c>
@@ -43680,7 +43689,7 @@
         <v>4104842.85</v>
       </c>
     </row>
-    <row r="3896" spans="1:11">
+    <row r="3896" spans="1:2">
       <c r="A3896" t="s">
         <v>3899</v>
       </c>
@@ -43688,7 +43697,7 @@
         <v>4104842.85</v>
       </c>
     </row>
-    <row r="3897" spans="1:11">
+    <row r="3897" spans="1:2">
       <c r="A3897" t="s">
         <v>3900</v>
       </c>
@@ -43696,7 +43705,7 @@
         <v>4104842.85</v>
       </c>
     </row>
-    <row r="3898" spans="1:11">
+    <row r="3898" spans="1:2">
       <c r="A3898" t="s">
         <v>3901</v>
       </c>
@@ -43704,7 +43713,7 @@
         <v>4120053.81</v>
       </c>
     </row>
-    <row r="3899" spans="1:11">
+    <row r="3899" spans="1:2">
       <c r="A3899" t="s">
         <v>3902</v>
       </c>
@@ -43712,7 +43721,7 @@
         <v>4127055.62</v>
       </c>
     </row>
-    <row r="3900" spans="1:11">
+    <row r="3900" spans="1:2">
       <c r="A3900" t="s">
         <v>3903</v>
       </c>
@@ -43720,7 +43729,7 @@
         <v>4150522.91</v>
       </c>
     </row>
-    <row r="3901" spans="1:11">
+    <row r="3901" spans="1:2">
       <c r="A3901" t="s">
         <v>3904</v>
       </c>
@@ -43728,7 +43737,7 @@
         <v>4146011.83</v>
       </c>
     </row>
-    <row r="3902" spans="1:11">
+    <row r="3902" spans="1:2">
       <c r="A3902" t="s">
         <v>3905</v>
       </c>
@@ -43736,7 +43745,7 @@
         <v>4140112.32</v>
       </c>
     </row>
-    <row r="3903" spans="1:11">
+    <row r="3903" spans="1:2">
       <c r="A3903" t="s">
         <v>3906</v>
       </c>
@@ -43744,23 +43753,13 @@
         <v>4140112.32</v>
       </c>
     </row>
-    <row r="3904" spans="1:11">
+    <row r="3904" spans="1:2">
       <c r="A3904" t="s">
         <v>3907</v>
       </c>
       <c r="B3904">
         <v>4140112.32</v>
       </c>
-      <c r="D3904" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3904" s="3"/>
-      <c r="F3904" s="3"/>
-      <c r="G3904" s="3"/>
-      <c r="H3904" s="3"/>
-      <c r="I3904" s="3"/>
-      <c r="J3904" s="3"/>
-      <c r="K3904" s="3"/>
     </row>
     <row r="3905" spans="1:11">
       <c r="A3905" t="s">
@@ -43769,16 +43768,6 @@
       <c r="B3905">
         <v>4145632.48</v>
       </c>
-      <c r="D3905" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3905" s="4"/>
-      <c r="F3905" s="4"/>
-      <c r="G3905" s="4"/>
-      <c r="H3905" s="4"/>
-      <c r="I3905" s="4"/>
-      <c r="J3905" s="4"/>
-      <c r="K3905" s="4"/>
     </row>
     <row r="3906" spans="1:11">
       <c r="A3906" t="s">
@@ -43787,21 +43776,65 @@
       <c r="B3906">
         <v>4138022.71</v>
       </c>
-      <c r="D3906" s="4"/>
-      <c r="E3906" s="4"/>
-      <c r="F3906" s="4"/>
-      <c r="G3906" s="4"/>
-      <c r="H3906" s="4"/>
-      <c r="I3906" s="4"/>
-      <c r="J3906" s="4"/>
-      <c r="K3906" s="4"/>
+    </row>
+    <row r="3907" spans="1:11">
+      <c r="A3907" t="s">
+        <v>3910</v>
+      </c>
+      <c r="B3907">
+        <v>4142050.55</v>
+      </c>
+      <c r="D3907" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3907" s="3"/>
+      <c r="F3907" s="3"/>
+      <c r="G3907" s="3"/>
+      <c r="H3907" s="3"/>
+      <c r="I3907" s="3"/>
+      <c r="J3907" s="3"/>
+      <c r="K3907" s="3"/>
+    </row>
+    <row r="3908" spans="1:11">
+      <c r="A3908" t="s">
+        <v>3911</v>
+      </c>
+      <c r="B3908">
+        <v>4142988.77</v>
+      </c>
+      <c r="D3908" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3908" s="4"/>
+      <c r="F3908" s="4"/>
+      <c r="G3908" s="4"/>
+      <c r="H3908" s="4"/>
+      <c r="I3908" s="4"/>
+      <c r="J3908" s="4"/>
+      <c r="K3908" s="4"/>
+    </row>
+    <row r="3909" spans="1:11">
+      <c r="A3909" t="s">
+        <v>3912</v>
+      </c>
+      <c r="B3909">
+        <v>4129102.09</v>
+      </c>
+      <c r="D3909" s="4"/>
+      <c r="E3909" s="4"/>
+      <c r="F3909" s="4"/>
+      <c r="G3909" s="4"/>
+      <c r="H3909" s="4"/>
+      <c r="I3909" s="4"/>
+      <c r="J3909" s="4"/>
+      <c r="K3909" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3904:K3904"/>
-    <mergeCell ref="D3905:K3906"/>
+    <mergeCell ref="D3907:K3907"/>
+    <mergeCell ref="D3908:K3909"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3915" uniqueCount="3913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3919" uniqueCount="3917">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11753,6 +11753,18 @@
   </si>
   <si>
     <t>8-19-2021</t>
+  </si>
+  <si>
+    <t>8-20-2021</t>
+  </si>
+  <si>
+    <t>8-21-2021</t>
+  </si>
+  <si>
+    <t>8-22-2021</t>
+  </si>
+  <si>
+    <t>8-23-2021</t>
   </si>
 </sst>
 </file>
@@ -11889,203 +11901,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3879:$A$3909</c:f>
+              <c:f>DolarToday!$A$3883:$A$3913</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>7-20-2021</c:v>
+                  <c:v>7-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7-21-2021</c:v>
+                  <c:v>7-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7-22-2021</c:v>
+                  <c:v>7-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7-23-2021</c:v>
+                  <c:v>7-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7-24-2021</c:v>
+                  <c:v>7-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7-25-2021</c:v>
+                  <c:v>7-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7-26-2021</c:v>
+                  <c:v>7-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7-27-2021</c:v>
+                  <c:v>7-31-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7-28-2021</c:v>
+                  <c:v>8-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7-29-2021</c:v>
+                  <c:v>8-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7-30-2021</c:v>
+                  <c:v>8-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7-31-2021</c:v>
+                  <c:v>8-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8-1-2021</c:v>
+                  <c:v>8-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8-2-2021</c:v>
+                  <c:v>8-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8-3-2021</c:v>
+                  <c:v>8-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8-4-2021</c:v>
+                  <c:v>8-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8-5-2021</c:v>
+                  <c:v>8-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8-6-2021</c:v>
+                  <c:v>8-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8-7-2021</c:v>
+                  <c:v>8-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8-8-2021</c:v>
+                  <c:v>8-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8-9-2021</c:v>
+                  <c:v>8-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8-10-2021</c:v>
+                  <c:v>8-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8-11-2021</c:v>
+                  <c:v>8-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8-12-2021</c:v>
+                  <c:v>8-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8-13-2021</c:v>
+                  <c:v>8-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8-14-2021</c:v>
+                  <c:v>8-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8-15-2021</c:v>
+                  <c:v>8-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8-16-2021</c:v>
+                  <c:v>8-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8-17-2021</c:v>
+                  <c:v>8-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8-18-2021</c:v>
+                  <c:v>8-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8-19-2021</c:v>
+                  <c:v>8-23-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3879:$B$3909</c:f>
+              <c:f>DolarToday!$B$3883:$B$3913</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3790225.82</c:v>
+                  <c:v>4000130.32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3850301.78</c:v>
+                  <c:v>4081047.55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000130.32</c:v>
+                  <c:v>4133044.13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4000130.32</c:v>
+                  <c:v>4200142.28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4000130.32</c:v>
+                  <c:v>4183013.74</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4081047.55</c:v>
+                  <c:v>4139112.34</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4133044.13</c:v>
+                  <c:v>4139112.34</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4200142.28</c:v>
+                  <c:v>4139112.34</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4183013.74</c:v>
+                  <c:v>4133529.92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4139112.34</c:v>
+                  <c:v>4120043.78</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4139112.34</c:v>
+                  <c:v>4090523.82</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4139112.34</c:v>
+                  <c:v>4060133.05</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4133529.92</c:v>
+                  <c:v>4104842.85</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4120043.78</c:v>
+                  <c:v>4104842.85</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4090523.82</c:v>
+                  <c:v>4104842.85</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4060133.05</c:v>
+                  <c:v>4120053.81</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4104842.85</c:v>
+                  <c:v>4127055.62</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4104842.85</c:v>
+                  <c:v>4150522.91</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4104842.85</c:v>
+                  <c:v>4146011.83</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4120053.81</c:v>
+                  <c:v>4140112.32</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4127055.62</c:v>
+                  <c:v>4140112.32</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4150522.91</c:v>
+                  <c:v>4140112.32</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4146011.83</c:v>
+                  <c:v>4145632.48</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4140112.32</c:v>
+                  <c:v>4138022.71</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4140112.32</c:v>
+                  <c:v>4142050.55</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4140112.32</c:v>
+                  <c:v>4142988.77</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4145632.48</c:v>
+                  <c:v>4129102.09</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4138022.71</c:v>
+                  <c:v>4129102.09</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4142050.55</c:v>
+                  <c:v>4129102.09</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4142988.77</c:v>
+                  <c:v>4136066.4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4129102.09</c:v>
+                  <c:v>4150378.78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12492,7 +12504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3909"/>
+  <dimension ref="A1:K3913"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43784,16 +43796,6 @@
       <c r="B3907">
         <v>4142050.55</v>
       </c>
-      <c r="D3907" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3907" s="3"/>
-      <c r="F3907" s="3"/>
-      <c r="G3907" s="3"/>
-      <c r="H3907" s="3"/>
-      <c r="I3907" s="3"/>
-      <c r="J3907" s="3"/>
-      <c r="K3907" s="3"/>
     </row>
     <row r="3908" spans="1:11">
       <c r="A3908" t="s">
@@ -43802,16 +43804,6 @@
       <c r="B3908">
         <v>4142988.77</v>
       </c>
-      <c r="D3908" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3908" s="4"/>
-      <c r="F3908" s="4"/>
-      <c r="G3908" s="4"/>
-      <c r="H3908" s="4"/>
-      <c r="I3908" s="4"/>
-      <c r="J3908" s="4"/>
-      <c r="K3908" s="4"/>
     </row>
     <row r="3909" spans="1:11">
       <c r="A3909" t="s">
@@ -43820,21 +43812,73 @@
       <c r="B3909">
         <v>4129102.09</v>
       </c>
-      <c r="D3909" s="4"/>
-      <c r="E3909" s="4"/>
-      <c r="F3909" s="4"/>
-      <c r="G3909" s="4"/>
-      <c r="H3909" s="4"/>
-      <c r="I3909" s="4"/>
-      <c r="J3909" s="4"/>
-      <c r="K3909" s="4"/>
+    </row>
+    <row r="3910" spans="1:11">
+      <c r="A3910" t="s">
+        <v>3913</v>
+      </c>
+      <c r="B3910">
+        <v>4129102.09</v>
+      </c>
+    </row>
+    <row r="3911" spans="1:11">
+      <c r="A3911" t="s">
+        <v>3914</v>
+      </c>
+      <c r="B3911">
+        <v>4129102.09</v>
+      </c>
+      <c r="D3911" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3911" s="3"/>
+      <c r="F3911" s="3"/>
+      <c r="G3911" s="3"/>
+      <c r="H3911" s="3"/>
+      <c r="I3911" s="3"/>
+      <c r="J3911" s="3"/>
+      <c r="K3911" s="3"/>
+    </row>
+    <row r="3912" spans="1:11">
+      <c r="A3912" t="s">
+        <v>3915</v>
+      </c>
+      <c r="B3912">
+        <v>4136066.4</v>
+      </c>
+      <c r="D3912" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3912" s="4"/>
+      <c r="F3912" s="4"/>
+      <c r="G3912" s="4"/>
+      <c r="H3912" s="4"/>
+      <c r="I3912" s="4"/>
+      <c r="J3912" s="4"/>
+      <c r="K3912" s="4"/>
+    </row>
+    <row r="3913" spans="1:11">
+      <c r="A3913" t="s">
+        <v>3916</v>
+      </c>
+      <c r="B3913">
+        <v>4150378.78</v>
+      </c>
+      <c r="D3913" s="4"/>
+      <c r="E3913" s="4"/>
+      <c r="F3913" s="4"/>
+      <c r="G3913" s="4"/>
+      <c r="H3913" s="4"/>
+      <c r="I3913" s="4"/>
+      <c r="J3913" s="4"/>
+      <c r="K3913" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3907:K3907"/>
-    <mergeCell ref="D3908:K3909"/>
+    <mergeCell ref="D3911:K3911"/>
+    <mergeCell ref="D3912:K3913"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3919" uniqueCount="3917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3921" uniqueCount="3919">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11765,6 +11765,12 @@
   </si>
   <si>
     <t>8-23-2021</t>
+  </si>
+  <si>
+    <t>8-24-2021</t>
+  </si>
+  <si>
+    <t>8-25-2021</t>
   </si>
 </sst>
 </file>
@@ -11901,203 +11907,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3883:$A$3913</c:f>
+              <c:f>DolarToday!$A$3885:$A$3915</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>7-24-2021</c:v>
+                  <c:v>7-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7-25-2021</c:v>
+                  <c:v>7-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7-26-2021</c:v>
+                  <c:v>7-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7-27-2021</c:v>
+                  <c:v>7-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7-28-2021</c:v>
+                  <c:v>7-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7-29-2021</c:v>
+                  <c:v>7-31-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7-30-2021</c:v>
+                  <c:v>8-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7-31-2021</c:v>
+                  <c:v>8-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8-1-2021</c:v>
+                  <c:v>8-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8-2-2021</c:v>
+                  <c:v>8-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8-3-2021</c:v>
+                  <c:v>8-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8-4-2021</c:v>
+                  <c:v>8-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8-5-2021</c:v>
+                  <c:v>8-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8-6-2021</c:v>
+                  <c:v>8-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8-7-2021</c:v>
+                  <c:v>8-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8-8-2021</c:v>
+                  <c:v>8-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8-9-2021</c:v>
+                  <c:v>8-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8-10-2021</c:v>
+                  <c:v>8-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8-11-2021</c:v>
+                  <c:v>8-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8-12-2021</c:v>
+                  <c:v>8-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8-13-2021</c:v>
+                  <c:v>8-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8-14-2021</c:v>
+                  <c:v>8-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8-15-2021</c:v>
+                  <c:v>8-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8-16-2021</c:v>
+                  <c:v>8-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8-17-2021</c:v>
+                  <c:v>8-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8-18-2021</c:v>
+                  <c:v>8-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8-19-2021</c:v>
+                  <c:v>8-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8-20-2021</c:v>
+                  <c:v>8-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8-21-2021</c:v>
+                  <c:v>8-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8-22-2021</c:v>
+                  <c:v>8-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8-23-2021</c:v>
+                  <c:v>8-25-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3883:$B$3913</c:f>
+              <c:f>DolarToday!$B$3885:$B$3915</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>4000130.32</c:v>
+                  <c:v>4133044.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4081047.55</c:v>
+                  <c:v>4200142.28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4133044.13</c:v>
+                  <c:v>4183013.74</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4200142.28</c:v>
+                  <c:v>4139112.34</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4183013.74</c:v>
+                  <c:v>4139112.34</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4139112.34</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4139112.34</c:v>
+                  <c:v>4133529.92</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4139112.34</c:v>
+                  <c:v>4120043.78</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4133529.92</c:v>
+                  <c:v>4090523.82</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4120043.78</c:v>
+                  <c:v>4060133.05</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4090523.82</c:v>
+                  <c:v>4104842.85</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4060133.05</c:v>
+                  <c:v>4104842.85</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>4104842.85</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4104842.85</c:v>
+                  <c:v>4120053.81</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4104842.85</c:v>
+                  <c:v>4127055.62</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4120053.81</c:v>
+                  <c:v>4150522.91</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4127055.62</c:v>
+                  <c:v>4146011.83</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4150522.91</c:v>
+                  <c:v>4140112.32</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4146011.83</c:v>
+                  <c:v>4140112.32</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>4140112.32</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4140112.32</c:v>
+                  <c:v>4145632.48</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4140112.32</c:v>
+                  <c:v>4138022.71</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4145632.48</c:v>
+                  <c:v>4142050.55</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4138022.71</c:v>
+                  <c:v>4142988.77</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4142050.55</c:v>
+                  <c:v>4129102.09</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4142988.77</c:v>
+                  <c:v>4129102.09</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>4129102.09</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4129102.09</c:v>
+                  <c:v>4136066.4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4129102.09</c:v>
+                  <c:v>4150378.78</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4136066.4</c:v>
+                  <c:v>4150378.78</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4150378.78</c:v>
+                  <c:v>4153512.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12504,7 +12510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3913"/>
+  <dimension ref="A1:K3915"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43828,16 +43834,6 @@
       <c r="B3911">
         <v>4129102.09</v>
       </c>
-      <c r="D3911" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3911" s="3"/>
-      <c r="F3911" s="3"/>
-      <c r="G3911" s="3"/>
-      <c r="H3911" s="3"/>
-      <c r="I3911" s="3"/>
-      <c r="J3911" s="3"/>
-      <c r="K3911" s="3"/>
     </row>
     <row r="3912" spans="1:11">
       <c r="A3912" t="s">
@@ -43846,16 +43842,6 @@
       <c r="B3912">
         <v>4136066.4</v>
       </c>
-      <c r="D3912" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3912" s="4"/>
-      <c r="F3912" s="4"/>
-      <c r="G3912" s="4"/>
-      <c r="H3912" s="4"/>
-      <c r="I3912" s="4"/>
-      <c r="J3912" s="4"/>
-      <c r="K3912" s="4"/>
     </row>
     <row r="3913" spans="1:11">
       <c r="A3913" t="s">
@@ -43864,21 +43850,57 @@
       <c r="B3913">
         <v>4150378.78</v>
       </c>
-      <c r="D3913" s="4"/>
-      <c r="E3913" s="4"/>
-      <c r="F3913" s="4"/>
-      <c r="G3913" s="4"/>
-      <c r="H3913" s="4"/>
-      <c r="I3913" s="4"/>
-      <c r="J3913" s="4"/>
-      <c r="K3913" s="4"/>
+      <c r="D3913" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3913" s="3"/>
+      <c r="F3913" s="3"/>
+      <c r="G3913" s="3"/>
+      <c r="H3913" s="3"/>
+      <c r="I3913" s="3"/>
+      <c r="J3913" s="3"/>
+      <c r="K3913" s="3"/>
+    </row>
+    <row r="3914" spans="1:11">
+      <c r="A3914" t="s">
+        <v>3917</v>
+      </c>
+      <c r="B3914">
+        <v>4150378.78</v>
+      </c>
+      <c r="D3914" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3914" s="4"/>
+      <c r="F3914" s="4"/>
+      <c r="G3914" s="4"/>
+      <c r="H3914" s="4"/>
+      <c r="I3914" s="4"/>
+      <c r="J3914" s="4"/>
+      <c r="K3914" s="4"/>
+    </row>
+    <row r="3915" spans="1:11">
+      <c r="A3915" t="s">
+        <v>3918</v>
+      </c>
+      <c r="B3915">
+        <v>4153512.02</v>
+      </c>
+      <c r="D3915" s="4"/>
+      <c r="E3915" s="4"/>
+      <c r="F3915" s="4"/>
+      <c r="G3915" s="4"/>
+      <c r="H3915" s="4"/>
+      <c r="I3915" s="4"/>
+      <c r="J3915" s="4"/>
+      <c r="K3915" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3911:K3911"/>
-    <mergeCell ref="D3912:K3913"/>
+    <mergeCell ref="D3913:K3913"/>
+    <mergeCell ref="D3914:K3915"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3921" uniqueCount="3919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3927" uniqueCount="3925">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11771,6 +11771,24 @@
   </si>
   <si>
     <t>8-25-2021</t>
+  </si>
+  <si>
+    <t>8-26-2021</t>
+  </si>
+  <si>
+    <t>8-27-2021</t>
+  </si>
+  <si>
+    <t>8-28-2021</t>
+  </si>
+  <si>
+    <t>8-29-2021</t>
+  </si>
+  <si>
+    <t>8-30-2021</t>
+  </si>
+  <si>
+    <t>8-31-2021</t>
   </si>
 </sst>
 </file>
@@ -11907,203 +11925,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3885:$A$3915</c:f>
+              <c:f>DolarToday!$A$3891:$A$3921</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>7-26-2021</c:v>
+                  <c:v>8-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7-27-2021</c:v>
+                  <c:v>8-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7-28-2021</c:v>
+                  <c:v>8-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7-29-2021</c:v>
+                  <c:v>8-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7-30-2021</c:v>
+                  <c:v>8-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7-31-2021</c:v>
+                  <c:v>8-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8-1-2021</c:v>
+                  <c:v>8-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8-2-2021</c:v>
+                  <c:v>8-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8-3-2021</c:v>
+                  <c:v>8-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8-4-2021</c:v>
+                  <c:v>8-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8-5-2021</c:v>
+                  <c:v>8-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8-6-2021</c:v>
+                  <c:v>8-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8-7-2021</c:v>
+                  <c:v>8-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8-8-2021</c:v>
+                  <c:v>8-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8-9-2021</c:v>
+                  <c:v>8-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8-10-2021</c:v>
+                  <c:v>8-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8-11-2021</c:v>
+                  <c:v>8-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8-12-2021</c:v>
+                  <c:v>8-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8-13-2021</c:v>
+                  <c:v>8-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8-14-2021</c:v>
+                  <c:v>8-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8-15-2021</c:v>
+                  <c:v>8-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8-16-2021</c:v>
+                  <c:v>8-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8-17-2021</c:v>
+                  <c:v>8-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8-18-2021</c:v>
+                  <c:v>8-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8-19-2021</c:v>
+                  <c:v>8-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8-20-2021</c:v>
+                  <c:v>8-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8-21-2021</c:v>
+                  <c:v>8-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8-22-2021</c:v>
+                  <c:v>8-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8-23-2021</c:v>
+                  <c:v>8-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8-24-2021</c:v>
+                  <c:v>8-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8-25-2021</c:v>
+                  <c:v>8-31-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3885:$B$3915</c:f>
+              <c:f>DolarToday!$B$3891:$B$3921</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>4133044.13</c:v>
+                  <c:v>4133529.92</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4200142.28</c:v>
+                  <c:v>4120043.78</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4183013.74</c:v>
+                  <c:v>4090523.82</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4139112.34</c:v>
+                  <c:v>4060133.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4139112.34</c:v>
+                  <c:v>4104842.85</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4139112.34</c:v>
+                  <c:v>4104842.85</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4133529.92</c:v>
+                  <c:v>4104842.85</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4120043.78</c:v>
+                  <c:v>4120053.81</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4090523.82</c:v>
+                  <c:v>4127055.62</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4060133.05</c:v>
+                  <c:v>4150522.91</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4104842.85</c:v>
+                  <c:v>4146011.83</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4104842.85</c:v>
+                  <c:v>4140112.32</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4104842.85</c:v>
+                  <c:v>4140112.32</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4120053.81</c:v>
+                  <c:v>4140112.32</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4127055.62</c:v>
+                  <c:v>4145632.48</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4150522.91</c:v>
+                  <c:v>4138022.71</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4146011.83</c:v>
+                  <c:v>4142050.55</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4140112.32</c:v>
+                  <c:v>4142988.77</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4140112.32</c:v>
+                  <c:v>4129102.09</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4140112.32</c:v>
+                  <c:v>4129102.09</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4145632.48</c:v>
+                  <c:v>4129102.09</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4138022.71</c:v>
+                  <c:v>4136066.4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4142050.55</c:v>
+                  <c:v>4150378.78</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4142988.77</c:v>
+                  <c:v>4150378.78</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4129102.09</c:v>
+                  <c:v>4153512.02</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4129102.09</c:v>
+                  <c:v>4146022.12</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4129102.09</c:v>
+                  <c:v>4146022.12</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4136066.4</c:v>
+                  <c:v>4146022.12</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4150378.78</c:v>
+                  <c:v>4140633.92</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4150378.78</c:v>
+                  <c:v>4148043.63</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4153512.02</c:v>
+                  <c:v>4138043.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12510,7 +12528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3915"/>
+  <dimension ref="A1:K3921"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43850,16 +43868,6 @@
       <c r="B3913">
         <v>4150378.78</v>
       </c>
-      <c r="D3913" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3913" s="3"/>
-      <c r="F3913" s="3"/>
-      <c r="G3913" s="3"/>
-      <c r="H3913" s="3"/>
-      <c r="I3913" s="3"/>
-      <c r="J3913" s="3"/>
-      <c r="K3913" s="3"/>
     </row>
     <row r="3914" spans="1:11">
       <c r="A3914" t="s">
@@ -43868,16 +43876,6 @@
       <c r="B3914">
         <v>4150378.78</v>
       </c>
-      <c r="D3914" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3914" s="4"/>
-      <c r="F3914" s="4"/>
-      <c r="G3914" s="4"/>
-      <c r="H3914" s="4"/>
-      <c r="I3914" s="4"/>
-      <c r="J3914" s="4"/>
-      <c r="K3914" s="4"/>
     </row>
     <row r="3915" spans="1:11">
       <c r="A3915" t="s">
@@ -43886,21 +43884,89 @@
       <c r="B3915">
         <v>4153512.02</v>
       </c>
-      <c r="D3915" s="4"/>
-      <c r="E3915" s="4"/>
-      <c r="F3915" s="4"/>
-      <c r="G3915" s="4"/>
-      <c r="H3915" s="4"/>
-      <c r="I3915" s="4"/>
-      <c r="J3915" s="4"/>
-      <c r="K3915" s="4"/>
+    </row>
+    <row r="3916" spans="1:11">
+      <c r="A3916" t="s">
+        <v>3919</v>
+      </c>
+      <c r="B3916">
+        <v>4146022.12</v>
+      </c>
+    </row>
+    <row r="3917" spans="1:11">
+      <c r="A3917" t="s">
+        <v>3920</v>
+      </c>
+      <c r="B3917">
+        <v>4146022.12</v>
+      </c>
+    </row>
+    <row r="3918" spans="1:11">
+      <c r="A3918" t="s">
+        <v>3921</v>
+      </c>
+      <c r="B3918">
+        <v>4146022.12</v>
+      </c>
+    </row>
+    <row r="3919" spans="1:11">
+      <c r="A3919" t="s">
+        <v>3922</v>
+      </c>
+      <c r="B3919">
+        <v>4140633.92</v>
+      </c>
+      <c r="D3919" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3919" s="3"/>
+      <c r="F3919" s="3"/>
+      <c r="G3919" s="3"/>
+      <c r="H3919" s="3"/>
+      <c r="I3919" s="3"/>
+      <c r="J3919" s="3"/>
+      <c r="K3919" s="3"/>
+    </row>
+    <row r="3920" spans="1:11">
+      <c r="A3920" t="s">
+        <v>3923</v>
+      </c>
+      <c r="B3920">
+        <v>4148043.63</v>
+      </c>
+      <c r="D3920" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3920" s="4"/>
+      <c r="F3920" s="4"/>
+      <c r="G3920" s="4"/>
+      <c r="H3920" s="4"/>
+      <c r="I3920" s="4"/>
+      <c r="J3920" s="4"/>
+      <c r="K3920" s="4"/>
+    </row>
+    <row r="3921" spans="1:11">
+      <c r="A3921" t="s">
+        <v>3924</v>
+      </c>
+      <c r="B3921">
+        <v>4138043.82</v>
+      </c>
+      <c r="D3921" s="4"/>
+      <c r="E3921" s="4"/>
+      <c r="F3921" s="4"/>
+      <c r="G3921" s="4"/>
+      <c r="H3921" s="4"/>
+      <c r="I3921" s="4"/>
+      <c r="J3921" s="4"/>
+      <c r="K3921" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3913:K3913"/>
-    <mergeCell ref="D3914:K3915"/>
+    <mergeCell ref="D3919:K3919"/>
+    <mergeCell ref="D3920:K3921"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3927" uniqueCount="3925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="3927">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11789,6 +11789,12 @@
   </si>
   <si>
     <t>8-31-2021</t>
+  </si>
+  <si>
+    <t>9-1-2021</t>
+  </si>
+  <si>
+    <t>9-2-2021</t>
   </si>
 </sst>
 </file>
@@ -11925,203 +11931,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3891:$A$3921</c:f>
+              <c:f>DolarToday!$A$3893:$A$3923</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>8-1-2021</c:v>
+                  <c:v>8-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8-2-2021</c:v>
+                  <c:v>8-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8-3-2021</c:v>
+                  <c:v>8-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8-4-2021</c:v>
+                  <c:v>8-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8-5-2021</c:v>
+                  <c:v>8-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8-6-2021</c:v>
+                  <c:v>8-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8-7-2021</c:v>
+                  <c:v>8-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8-8-2021</c:v>
+                  <c:v>8-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8-9-2021</c:v>
+                  <c:v>8-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8-10-2021</c:v>
+                  <c:v>8-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8-11-2021</c:v>
+                  <c:v>8-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8-12-2021</c:v>
+                  <c:v>8-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8-13-2021</c:v>
+                  <c:v>8-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8-14-2021</c:v>
+                  <c:v>8-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8-15-2021</c:v>
+                  <c:v>8-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8-16-2021</c:v>
+                  <c:v>8-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8-17-2021</c:v>
+                  <c:v>8-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8-18-2021</c:v>
+                  <c:v>8-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8-19-2021</c:v>
+                  <c:v>8-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8-20-2021</c:v>
+                  <c:v>8-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8-21-2021</c:v>
+                  <c:v>8-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8-22-2021</c:v>
+                  <c:v>8-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8-23-2021</c:v>
+                  <c:v>8-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8-24-2021</c:v>
+                  <c:v>8-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8-25-2021</c:v>
+                  <c:v>8-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8-26-2021</c:v>
+                  <c:v>8-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8-27-2021</c:v>
+                  <c:v>8-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8-28-2021</c:v>
+                  <c:v>8-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8-29-2021</c:v>
+                  <c:v>8-31-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8-30-2021</c:v>
+                  <c:v>9-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8-31-2021</c:v>
+                  <c:v>9-2-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3891:$B$3921</c:f>
+              <c:f>DolarToday!$B$3893:$B$3923</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>4133529.92</c:v>
+                  <c:v>4090523.82</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4120043.78</c:v>
+                  <c:v>4060133.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4090523.82</c:v>
+                  <c:v>4104842.85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4060133.05</c:v>
+                  <c:v>4104842.85</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4104842.85</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4104842.85</c:v>
+                  <c:v>4120053.81</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4104842.85</c:v>
+                  <c:v>4127055.62</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4120053.81</c:v>
+                  <c:v>4150522.91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4127055.62</c:v>
+                  <c:v>4146011.83</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4150522.91</c:v>
+                  <c:v>4140112.32</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4146011.83</c:v>
+                  <c:v>4140112.32</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4140112.32</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4140112.32</c:v>
+                  <c:v>4145632.48</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4140112.32</c:v>
+                  <c:v>4138022.71</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4145632.48</c:v>
+                  <c:v>4142050.55</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4138022.71</c:v>
+                  <c:v>4142988.77</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4142050.55</c:v>
+                  <c:v>4129102.09</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4142988.77</c:v>
+                  <c:v>4129102.09</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>4129102.09</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4129102.09</c:v>
+                  <c:v>4136066.4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4129102.09</c:v>
+                  <c:v>4150378.78</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4136066.4</c:v>
+                  <c:v>4150378.78</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4150378.78</c:v>
+                  <c:v>4153512.02</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4150378.78</c:v>
+                  <c:v>4146022.12</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4153512.02</c:v>
+                  <c:v>4146022.12</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>4146022.12</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4146022.12</c:v>
+                  <c:v>4140633.92</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4146022.12</c:v>
+                  <c:v>4148043.63</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4140633.92</c:v>
+                  <c:v>4138043.82</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4148043.63</c:v>
+                  <c:v>4120404.82</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4138043.82</c:v>
+                  <c:v>4102843.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12528,7 +12534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3921"/>
+  <dimension ref="A1:K3923"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43797,7 +43803,7 @@
         <v>4140112.32</v>
       </c>
     </row>
-    <row r="3905" spans="1:11">
+    <row r="3905" spans="1:2">
       <c r="A3905" t="s">
         <v>3908</v>
       </c>
@@ -43805,7 +43811,7 @@
         <v>4145632.48</v>
       </c>
     </row>
-    <row r="3906" spans="1:11">
+    <row r="3906" spans="1:2">
       <c r="A3906" t="s">
         <v>3909</v>
       </c>
@@ -43813,7 +43819,7 @@
         <v>4138022.71</v>
       </c>
     </row>
-    <row r="3907" spans="1:11">
+    <row r="3907" spans="1:2">
       <c r="A3907" t="s">
         <v>3910</v>
       </c>
@@ -43821,7 +43827,7 @@
         <v>4142050.55</v>
       </c>
     </row>
-    <row r="3908" spans="1:11">
+    <row r="3908" spans="1:2">
       <c r="A3908" t="s">
         <v>3911</v>
       </c>
@@ -43829,7 +43835,7 @@
         <v>4142988.77</v>
       </c>
     </row>
-    <row r="3909" spans="1:11">
+    <row r="3909" spans="1:2">
       <c r="A3909" t="s">
         <v>3912</v>
       </c>
@@ -43837,7 +43843,7 @@
         <v>4129102.09</v>
       </c>
     </row>
-    <row r="3910" spans="1:11">
+    <row r="3910" spans="1:2">
       <c r="A3910" t="s">
         <v>3913</v>
       </c>
@@ -43845,7 +43851,7 @@
         <v>4129102.09</v>
       </c>
     </row>
-    <row r="3911" spans="1:11">
+    <row r="3911" spans="1:2">
       <c r="A3911" t="s">
         <v>3914</v>
       </c>
@@ -43853,7 +43859,7 @@
         <v>4129102.09</v>
       </c>
     </row>
-    <row r="3912" spans="1:11">
+    <row r="3912" spans="1:2">
       <c r="A3912" t="s">
         <v>3915</v>
       </c>
@@ -43861,7 +43867,7 @@
         <v>4136066.4</v>
       </c>
     </row>
-    <row r="3913" spans="1:11">
+    <row r="3913" spans="1:2">
       <c r="A3913" t="s">
         <v>3916</v>
       </c>
@@ -43869,7 +43875,7 @@
         <v>4150378.78</v>
       </c>
     </row>
-    <row r="3914" spans="1:11">
+    <row r="3914" spans="1:2">
       <c r="A3914" t="s">
         <v>3917</v>
       </c>
@@ -43877,7 +43883,7 @@
         <v>4150378.78</v>
       </c>
     </row>
-    <row r="3915" spans="1:11">
+    <row r="3915" spans="1:2">
       <c r="A3915" t="s">
         <v>3918</v>
       </c>
@@ -43885,7 +43891,7 @@
         <v>4153512.02</v>
       </c>
     </row>
-    <row r="3916" spans="1:11">
+    <row r="3916" spans="1:2">
       <c r="A3916" t="s">
         <v>3919</v>
       </c>
@@ -43893,7 +43899,7 @@
         <v>4146022.12</v>
       </c>
     </row>
-    <row r="3917" spans="1:11">
+    <row r="3917" spans="1:2">
       <c r="A3917" t="s">
         <v>3920</v>
       </c>
@@ -43901,7 +43907,7 @@
         <v>4146022.12</v>
       </c>
     </row>
-    <row r="3918" spans="1:11">
+    <row r="3918" spans="1:2">
       <c r="A3918" t="s">
         <v>3921</v>
       </c>
@@ -43909,41 +43915,21 @@
         <v>4146022.12</v>
       </c>
     </row>
-    <row r="3919" spans="1:11">
+    <row r="3919" spans="1:2">
       <c r="A3919" t="s">
         <v>3922</v>
       </c>
       <c r="B3919">
         <v>4140633.92</v>
       </c>
-      <c r="D3919" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3919" s="3"/>
-      <c r="F3919" s="3"/>
-      <c r="G3919" s="3"/>
-      <c r="H3919" s="3"/>
-      <c r="I3919" s="3"/>
-      <c r="J3919" s="3"/>
-      <c r="K3919" s="3"/>
-    </row>
-    <row r="3920" spans="1:11">
+    </row>
+    <row r="3920" spans="1:2">
       <c r="A3920" t="s">
         <v>3923</v>
       </c>
       <c r="B3920">
         <v>4148043.63</v>
       </c>
-      <c r="D3920" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3920" s="4"/>
-      <c r="F3920" s="4"/>
-      <c r="G3920" s="4"/>
-      <c r="H3920" s="4"/>
-      <c r="I3920" s="4"/>
-      <c r="J3920" s="4"/>
-      <c r="K3920" s="4"/>
     </row>
     <row r="3921" spans="1:11">
       <c r="A3921" t="s">
@@ -43952,21 +43938,57 @@
       <c r="B3921">
         <v>4138043.82</v>
       </c>
-      <c r="D3921" s="4"/>
-      <c r="E3921" s="4"/>
-      <c r="F3921" s="4"/>
-      <c r="G3921" s="4"/>
-      <c r="H3921" s="4"/>
-      <c r="I3921" s="4"/>
-      <c r="J3921" s="4"/>
-      <c r="K3921" s="4"/>
+      <c r="D3921" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3921" s="3"/>
+      <c r="F3921" s="3"/>
+      <c r="G3921" s="3"/>
+      <c r="H3921" s="3"/>
+      <c r="I3921" s="3"/>
+      <c r="J3921" s="3"/>
+      <c r="K3921" s="3"/>
+    </row>
+    <row r="3922" spans="1:11">
+      <c r="A3922" t="s">
+        <v>3925</v>
+      </c>
+      <c r="B3922">
+        <v>4120404.82</v>
+      </c>
+      <c r="D3922" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3922" s="4"/>
+      <c r="F3922" s="4"/>
+      <c r="G3922" s="4"/>
+      <c r="H3922" s="4"/>
+      <c r="I3922" s="4"/>
+      <c r="J3922" s="4"/>
+      <c r="K3922" s="4"/>
+    </row>
+    <row r="3923" spans="1:11">
+      <c r="A3923" t="s">
+        <v>3926</v>
+      </c>
+      <c r="B3923">
+        <v>4102843.92</v>
+      </c>
+      <c r="D3923" s="4"/>
+      <c r="E3923" s="4"/>
+      <c r="F3923" s="4"/>
+      <c r="G3923" s="4"/>
+      <c r="H3923" s="4"/>
+      <c r="I3923" s="4"/>
+      <c r="J3923" s="4"/>
+      <c r="K3923" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3919:K3919"/>
-    <mergeCell ref="D3920:K3921"/>
+    <mergeCell ref="D3921:K3921"/>
+    <mergeCell ref="D3922:K3923"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="3927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3932" uniqueCount="3930">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11795,6 +11795,15 @@
   </si>
   <si>
     <t>9-2-2021</t>
+  </si>
+  <si>
+    <t>9-3-2021</t>
+  </si>
+  <si>
+    <t>9-4-2021</t>
+  </si>
+  <si>
+    <t>9-5-2021</t>
   </si>
 </sst>
 </file>
@@ -11931,203 +11940,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3893:$A$3923</c:f>
+              <c:f>DolarToday!$A$3896:$A$3926</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>8-3-2021</c:v>
+                  <c:v>8-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8-4-2021</c:v>
+                  <c:v>8-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8-5-2021</c:v>
+                  <c:v>8-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8-6-2021</c:v>
+                  <c:v>8-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8-7-2021</c:v>
+                  <c:v>8-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8-8-2021</c:v>
+                  <c:v>8-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8-9-2021</c:v>
+                  <c:v>8-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8-10-2021</c:v>
+                  <c:v>8-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8-11-2021</c:v>
+                  <c:v>8-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8-12-2021</c:v>
+                  <c:v>8-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8-13-2021</c:v>
+                  <c:v>8-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8-14-2021</c:v>
+                  <c:v>8-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8-15-2021</c:v>
+                  <c:v>8-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8-16-2021</c:v>
+                  <c:v>8-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8-17-2021</c:v>
+                  <c:v>8-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8-18-2021</c:v>
+                  <c:v>8-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8-19-2021</c:v>
+                  <c:v>8-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8-20-2021</c:v>
+                  <c:v>8-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8-21-2021</c:v>
+                  <c:v>8-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8-22-2021</c:v>
+                  <c:v>8-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8-23-2021</c:v>
+                  <c:v>8-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8-24-2021</c:v>
+                  <c:v>8-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8-25-2021</c:v>
+                  <c:v>8-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8-26-2021</c:v>
+                  <c:v>8-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8-27-2021</c:v>
+                  <c:v>8-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8-28-2021</c:v>
+                  <c:v>8-31-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8-29-2021</c:v>
+                  <c:v>9-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8-30-2021</c:v>
+                  <c:v>9-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8-31-2021</c:v>
+                  <c:v>9-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9-1-2021</c:v>
+                  <c:v>9-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9-2-2021</c:v>
+                  <c:v>9-5-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3893:$B$3923</c:f>
+              <c:f>DolarToday!$B$3896:$B$3926</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>4090523.82</c:v>
+                  <c:v>4104842.85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4060133.05</c:v>
+                  <c:v>4104842.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4104842.85</c:v>
+                  <c:v>4120053.81</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4104842.85</c:v>
+                  <c:v>4127055.62</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4104842.85</c:v>
+                  <c:v>4150522.91</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4120053.81</c:v>
+                  <c:v>4146011.83</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4127055.62</c:v>
+                  <c:v>4140112.32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4150522.91</c:v>
+                  <c:v>4140112.32</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4146011.83</c:v>
+                  <c:v>4140112.32</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4140112.32</c:v>
+                  <c:v>4145632.48</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4140112.32</c:v>
+                  <c:v>4138022.71</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4140112.32</c:v>
+                  <c:v>4142050.55</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4145632.48</c:v>
+                  <c:v>4142988.77</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4138022.71</c:v>
+                  <c:v>4129102.09</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4142050.55</c:v>
+                  <c:v>4129102.09</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4142988.77</c:v>
+                  <c:v>4129102.09</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4129102.09</c:v>
+                  <c:v>4136066.4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4129102.09</c:v>
+                  <c:v>4150378.78</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4129102.09</c:v>
+                  <c:v>4150378.78</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4136066.4</c:v>
+                  <c:v>4153512.02</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4150378.78</c:v>
+                  <c:v>4146022.12</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4150378.78</c:v>
+                  <c:v>4146022.12</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4153512.02</c:v>
+                  <c:v>4146022.12</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4146022.12</c:v>
+                  <c:v>4140633.92</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4146022.12</c:v>
+                  <c:v>4148043.63</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4146022.12</c:v>
+                  <c:v>4138043.82</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4140633.92</c:v>
+                  <c:v>4120404.82</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4148043.63</c:v>
+                  <c:v>4102843.92</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4138043.82</c:v>
+                  <c:v>4102843.92</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4120404.82</c:v>
+                  <c:v>4102843.92</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4102843.92</c:v>
+                  <c:v>4110528.83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12534,7 +12543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3923"/>
+  <dimension ref="A1:K3926"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43938,16 +43947,6 @@
       <c r="B3921">
         <v>4138043.82</v>
       </c>
-      <c r="D3921" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3921" s="3"/>
-      <c r="F3921" s="3"/>
-      <c r="G3921" s="3"/>
-      <c r="H3921" s="3"/>
-      <c r="I3921" s="3"/>
-      <c r="J3921" s="3"/>
-      <c r="K3921" s="3"/>
     </row>
     <row r="3922" spans="1:11">
       <c r="A3922" t="s">
@@ -43956,16 +43955,6 @@
       <c r="B3922">
         <v>4120404.82</v>
       </c>
-      <c r="D3922" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3922" s="4"/>
-      <c r="F3922" s="4"/>
-      <c r="G3922" s="4"/>
-      <c r="H3922" s="4"/>
-      <c r="I3922" s="4"/>
-      <c r="J3922" s="4"/>
-      <c r="K3922" s="4"/>
     </row>
     <row r="3923" spans="1:11">
       <c r="A3923" t="s">
@@ -43974,21 +43963,65 @@
       <c r="B3923">
         <v>4102843.92</v>
       </c>
-      <c r="D3923" s="4"/>
-      <c r="E3923" s="4"/>
-      <c r="F3923" s="4"/>
-      <c r="G3923" s="4"/>
-      <c r="H3923" s="4"/>
-      <c r="I3923" s="4"/>
-      <c r="J3923" s="4"/>
-      <c r="K3923" s="4"/>
+    </row>
+    <row r="3924" spans="1:11">
+      <c r="A3924" t="s">
+        <v>3927</v>
+      </c>
+      <c r="B3924">
+        <v>4102843.92</v>
+      </c>
+      <c r="D3924" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3924" s="3"/>
+      <c r="F3924" s="3"/>
+      <c r="G3924" s="3"/>
+      <c r="H3924" s="3"/>
+      <c r="I3924" s="3"/>
+      <c r="J3924" s="3"/>
+      <c r="K3924" s="3"/>
+    </row>
+    <row r="3925" spans="1:11">
+      <c r="A3925" t="s">
+        <v>3928</v>
+      </c>
+      <c r="B3925">
+        <v>4102843.92</v>
+      </c>
+      <c r="D3925" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3925" s="4"/>
+      <c r="F3925" s="4"/>
+      <c r="G3925" s="4"/>
+      <c r="H3925" s="4"/>
+      <c r="I3925" s="4"/>
+      <c r="J3925" s="4"/>
+      <c r="K3925" s="4"/>
+    </row>
+    <row r="3926" spans="1:11">
+      <c r="A3926" t="s">
+        <v>3929</v>
+      </c>
+      <c r="B3926">
+        <v>4110528.83</v>
+      </c>
+      <c r="D3926" s="4"/>
+      <c r="E3926" s="4"/>
+      <c r="F3926" s="4"/>
+      <c r="G3926" s="4"/>
+      <c r="H3926" s="4"/>
+      <c r="I3926" s="4"/>
+      <c r="J3926" s="4"/>
+      <c r="K3926" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3921:K3921"/>
-    <mergeCell ref="D3922:K3923"/>
+    <mergeCell ref="D3924:K3924"/>
+    <mergeCell ref="D3925:K3926"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3932" uniqueCount="3930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3933" uniqueCount="3931">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11804,6 +11804,9 @@
   </si>
   <si>
     <t>9-5-2021</t>
+  </si>
+  <si>
+    <t>9-6-2021</t>
   </si>
 </sst>
 </file>
@@ -11940,108 +11943,108 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3896:$A$3926</c:f>
+              <c:f>DolarToday!$A$3897:$A$3927</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>8-6-2021</c:v>
+                  <c:v>8-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8-7-2021</c:v>
+                  <c:v>8-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8-8-2021</c:v>
+                  <c:v>8-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8-9-2021</c:v>
+                  <c:v>8-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8-10-2021</c:v>
+                  <c:v>8-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8-11-2021</c:v>
+                  <c:v>8-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8-12-2021</c:v>
+                  <c:v>8-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8-13-2021</c:v>
+                  <c:v>8-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8-14-2021</c:v>
+                  <c:v>8-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8-15-2021</c:v>
+                  <c:v>8-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8-16-2021</c:v>
+                  <c:v>8-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8-17-2021</c:v>
+                  <c:v>8-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8-18-2021</c:v>
+                  <c:v>8-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8-19-2021</c:v>
+                  <c:v>8-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8-20-2021</c:v>
+                  <c:v>8-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8-21-2021</c:v>
+                  <c:v>8-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8-22-2021</c:v>
+                  <c:v>8-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8-23-2021</c:v>
+                  <c:v>8-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8-24-2021</c:v>
+                  <c:v>8-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8-25-2021</c:v>
+                  <c:v>8-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8-26-2021</c:v>
+                  <c:v>8-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8-27-2021</c:v>
+                  <c:v>8-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8-28-2021</c:v>
+                  <c:v>8-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8-29-2021</c:v>
+                  <c:v>8-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8-30-2021</c:v>
+                  <c:v>8-31-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8-31-2021</c:v>
+                  <c:v>9-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9-1-2021</c:v>
+                  <c:v>9-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9-2-2021</c:v>
+                  <c:v>9-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9-3-2021</c:v>
+                  <c:v>9-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9-4-2021</c:v>
+                  <c:v>9-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9-5-2021</c:v>
+                  <c:v>9-6-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3896:$B$3926</c:f>
+              <c:f>DolarToday!$B$3897:$B$3927</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -12049,19 +12052,19 @@
                   <c:v>4104842.85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4104842.85</c:v>
+                  <c:v>4120053.81</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4120053.81</c:v>
+                  <c:v>4127055.62</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4127055.62</c:v>
+                  <c:v>4150522.91</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4150522.91</c:v>
+                  <c:v>4146011.83</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4146011.83</c:v>
+                  <c:v>4140112.32</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4140112.32</c:v>
@@ -12070,19 +12073,19 @@
                   <c:v>4140112.32</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4140112.32</c:v>
+                  <c:v>4145632.48</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4145632.48</c:v>
+                  <c:v>4138022.71</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4138022.71</c:v>
+                  <c:v>4142050.55</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4142050.55</c:v>
+                  <c:v>4142988.77</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4142988.77</c:v>
+                  <c:v>4129102.09</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>4129102.09</c:v>
@@ -12091,19 +12094,19 @@
                   <c:v>4129102.09</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4129102.09</c:v>
+                  <c:v>4136066.4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4136066.4</c:v>
+                  <c:v>4150378.78</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>4150378.78</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4150378.78</c:v>
+                  <c:v>4153512.02</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4153512.02</c:v>
+                  <c:v>4146022.12</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>4146022.12</c:v>
@@ -12112,19 +12115,19 @@
                   <c:v>4146022.12</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4146022.12</c:v>
+                  <c:v>4140633.92</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4140633.92</c:v>
+                  <c:v>4148043.63</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4148043.63</c:v>
+                  <c:v>4138043.82</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4138043.82</c:v>
+                  <c:v>4120404.82</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4120404.82</c:v>
+                  <c:v>4102843.92</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>4102843.92</c:v>
@@ -12133,10 +12136,10 @@
                   <c:v>4102843.92</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4102843.92</c:v>
+                  <c:v>4110528.83</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4110528.83</c:v>
+                  <c:v>4100455.23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12543,7 +12546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3926"/>
+  <dimension ref="A1:K3927"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43971,16 +43974,6 @@
       <c r="B3924">
         <v>4102843.92</v>
       </c>
-      <c r="D3924" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3924" s="3"/>
-      <c r="F3924" s="3"/>
-      <c r="G3924" s="3"/>
-      <c r="H3924" s="3"/>
-      <c r="I3924" s="3"/>
-      <c r="J3924" s="3"/>
-      <c r="K3924" s="3"/>
     </row>
     <row r="3925" spans="1:11">
       <c r="A3925" t="s">
@@ -43989,16 +43982,16 @@
       <c r="B3925">
         <v>4102843.92</v>
       </c>
-      <c r="D3925" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3925" s="4"/>
-      <c r="F3925" s="4"/>
-      <c r="G3925" s="4"/>
-      <c r="H3925" s="4"/>
-      <c r="I3925" s="4"/>
-      <c r="J3925" s="4"/>
-      <c r="K3925" s="4"/>
+      <c r="D3925" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3925" s="3"/>
+      <c r="F3925" s="3"/>
+      <c r="G3925" s="3"/>
+      <c r="H3925" s="3"/>
+      <c r="I3925" s="3"/>
+      <c r="J3925" s="3"/>
+      <c r="K3925" s="3"/>
     </row>
     <row r="3926" spans="1:11">
       <c r="A3926" t="s">
@@ -44007,7 +44000,9 @@
       <c r="B3926">
         <v>4110528.83</v>
       </c>
-      <c r="D3926" s="4"/>
+      <c r="D3926" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3926" s="4"/>
       <c r="F3926" s="4"/>
       <c r="G3926" s="4"/>
@@ -44016,12 +44011,28 @@
       <c r="J3926" s="4"/>
       <c r="K3926" s="4"/>
     </row>
+    <row r="3927" spans="1:11">
+      <c r="A3927" t="s">
+        <v>3930</v>
+      </c>
+      <c r="B3927">
+        <v>4100455.23</v>
+      </c>
+      <c r="D3927" s="4"/>
+      <c r="E3927" s="4"/>
+      <c r="F3927" s="4"/>
+      <c r="G3927" s="4"/>
+      <c r="H3927" s="4"/>
+      <c r="I3927" s="4"/>
+      <c r="J3927" s="4"/>
+      <c r="K3927" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3924:K3924"/>
-    <mergeCell ref="D3925:K3926"/>
+    <mergeCell ref="D3925:K3925"/>
+    <mergeCell ref="D3926:K3927"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3933" uniqueCount="3931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3935" uniqueCount="3933">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11807,6 +11807,12 @@
   </si>
   <si>
     <t>9-6-2021</t>
+  </si>
+  <si>
+    <t>9-7-2021</t>
+  </si>
+  <si>
+    <t>9-8-2021</t>
   </si>
 </sst>
 </file>
@@ -11943,203 +11949,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3897:$A$3927</c:f>
+              <c:f>DolarToday!$A$3899:$A$3929</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>8-7-2021</c:v>
+                  <c:v>8-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8-8-2021</c:v>
+                  <c:v>8-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8-9-2021</c:v>
+                  <c:v>8-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8-10-2021</c:v>
+                  <c:v>8-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8-11-2021</c:v>
+                  <c:v>8-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8-12-2021</c:v>
+                  <c:v>8-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8-13-2021</c:v>
+                  <c:v>8-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8-14-2021</c:v>
+                  <c:v>8-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8-15-2021</c:v>
+                  <c:v>8-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8-16-2021</c:v>
+                  <c:v>8-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8-17-2021</c:v>
+                  <c:v>8-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8-18-2021</c:v>
+                  <c:v>8-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8-19-2021</c:v>
+                  <c:v>8-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8-20-2021</c:v>
+                  <c:v>8-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8-21-2021</c:v>
+                  <c:v>8-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8-22-2021</c:v>
+                  <c:v>8-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8-23-2021</c:v>
+                  <c:v>8-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8-24-2021</c:v>
+                  <c:v>8-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8-25-2021</c:v>
+                  <c:v>8-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8-26-2021</c:v>
+                  <c:v>8-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8-27-2021</c:v>
+                  <c:v>8-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8-28-2021</c:v>
+                  <c:v>8-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8-29-2021</c:v>
+                  <c:v>8-31-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8-30-2021</c:v>
+                  <c:v>9-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8-31-2021</c:v>
+                  <c:v>9-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9-1-2021</c:v>
+                  <c:v>9-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9-2-2021</c:v>
+                  <c:v>9-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9-3-2021</c:v>
+                  <c:v>9-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9-4-2021</c:v>
+                  <c:v>9-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9-5-2021</c:v>
+                  <c:v>9-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9-6-2021</c:v>
+                  <c:v>9-8-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3897:$B$3927</c:f>
+              <c:f>DolarToday!$B$3899:$B$3929</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>4104842.85</c:v>
+                  <c:v>4127055.62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4120053.81</c:v>
+                  <c:v>4150522.91</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4127055.62</c:v>
+                  <c:v>4146011.83</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4150522.91</c:v>
+                  <c:v>4140112.32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4146011.83</c:v>
+                  <c:v>4140112.32</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4140112.32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4140112.32</c:v>
+                  <c:v>4145632.48</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4140112.32</c:v>
+                  <c:v>4138022.71</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4145632.48</c:v>
+                  <c:v>4142050.55</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4138022.71</c:v>
+                  <c:v>4142988.77</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4142050.55</c:v>
+                  <c:v>4129102.09</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4142988.77</c:v>
+                  <c:v>4129102.09</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>4129102.09</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4129102.09</c:v>
+                  <c:v>4136066.4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4129102.09</c:v>
+                  <c:v>4150378.78</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4136066.4</c:v>
+                  <c:v>4150378.78</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4150378.78</c:v>
+                  <c:v>4153512.02</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4150378.78</c:v>
+                  <c:v>4146022.12</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4153512.02</c:v>
+                  <c:v>4146022.12</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>4146022.12</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4146022.12</c:v>
+                  <c:v>4140633.92</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4146022.12</c:v>
+                  <c:v>4148043.63</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4140633.92</c:v>
+                  <c:v>4138043.82</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4148043.63</c:v>
+                  <c:v>4120404.82</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4138043.82</c:v>
+                  <c:v>4102843.92</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4120404.82</c:v>
+                  <c:v>4102843.92</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>4102843.92</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4102843.92</c:v>
+                  <c:v>4110528.83</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4102843.92</c:v>
+                  <c:v>4100455.23</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4110528.83</c:v>
+                  <c:v>4142063.83</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4100455.23</c:v>
+                  <c:v>4127011.53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12546,7 +12552,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3927"/>
+  <dimension ref="A1:K3929"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43982,16 +43988,6 @@
       <c r="B3925">
         <v>4102843.92</v>
       </c>
-      <c r="D3925" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3925" s="3"/>
-      <c r="F3925" s="3"/>
-      <c r="G3925" s="3"/>
-      <c r="H3925" s="3"/>
-      <c r="I3925" s="3"/>
-      <c r="J3925" s="3"/>
-      <c r="K3925" s="3"/>
     </row>
     <row r="3926" spans="1:11">
       <c r="A3926" t="s">
@@ -44000,16 +43996,6 @@
       <c r="B3926">
         <v>4110528.83</v>
       </c>
-      <c r="D3926" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3926" s="4"/>
-      <c r="F3926" s="4"/>
-      <c r="G3926" s="4"/>
-      <c r="H3926" s="4"/>
-      <c r="I3926" s="4"/>
-      <c r="J3926" s="4"/>
-      <c r="K3926" s="4"/>
     </row>
     <row r="3927" spans="1:11">
       <c r="A3927" t="s">
@@ -44018,21 +44004,57 @@
       <c r="B3927">
         <v>4100455.23</v>
       </c>
-      <c r="D3927" s="4"/>
-      <c r="E3927" s="4"/>
-      <c r="F3927" s="4"/>
-      <c r="G3927" s="4"/>
-      <c r="H3927" s="4"/>
-      <c r="I3927" s="4"/>
-      <c r="J3927" s="4"/>
-      <c r="K3927" s="4"/>
+      <c r="D3927" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3927" s="3"/>
+      <c r="F3927" s="3"/>
+      <c r="G3927" s="3"/>
+      <c r="H3927" s="3"/>
+      <c r="I3927" s="3"/>
+      <c r="J3927" s="3"/>
+      <c r="K3927" s="3"/>
+    </row>
+    <row r="3928" spans="1:11">
+      <c r="A3928" t="s">
+        <v>3931</v>
+      </c>
+      <c r="B3928">
+        <v>4142063.83</v>
+      </c>
+      <c r="D3928" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3928" s="4"/>
+      <c r="F3928" s="4"/>
+      <c r="G3928" s="4"/>
+      <c r="H3928" s="4"/>
+      <c r="I3928" s="4"/>
+      <c r="J3928" s="4"/>
+      <c r="K3928" s="4"/>
+    </row>
+    <row r="3929" spans="1:11">
+      <c r="A3929" t="s">
+        <v>3932</v>
+      </c>
+      <c r="B3929">
+        <v>4127011.53</v>
+      </c>
+      <c r="D3929" s="4"/>
+      <c r="E3929" s="4"/>
+      <c r="F3929" s="4"/>
+      <c r="G3929" s="4"/>
+      <c r="H3929" s="4"/>
+      <c r="I3929" s="4"/>
+      <c r="J3929" s="4"/>
+      <c r="K3929" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3925:K3925"/>
-    <mergeCell ref="D3926:K3927"/>
+    <mergeCell ref="D3927:K3927"/>
+    <mergeCell ref="D3928:K3929"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3935" uniqueCount="3933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3936" uniqueCount="3934">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11813,6 +11813,9 @@
   </si>
   <si>
     <t>9-8-2021</t>
+  </si>
+  <si>
+    <t>9-9-2021</t>
   </si>
 </sst>
 </file>
@@ -11949,119 +11952,119 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3899:$A$3929</c:f>
+              <c:f>DolarToday!$A$3900:$A$3930</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>8-9-2021</c:v>
+                  <c:v>8-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8-10-2021</c:v>
+                  <c:v>8-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8-11-2021</c:v>
+                  <c:v>8-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8-12-2021</c:v>
+                  <c:v>8-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8-13-2021</c:v>
+                  <c:v>8-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8-14-2021</c:v>
+                  <c:v>8-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8-15-2021</c:v>
+                  <c:v>8-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8-16-2021</c:v>
+                  <c:v>8-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8-17-2021</c:v>
+                  <c:v>8-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8-18-2021</c:v>
+                  <c:v>8-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8-19-2021</c:v>
+                  <c:v>8-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8-20-2021</c:v>
+                  <c:v>8-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8-21-2021</c:v>
+                  <c:v>8-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8-22-2021</c:v>
+                  <c:v>8-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8-23-2021</c:v>
+                  <c:v>8-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8-24-2021</c:v>
+                  <c:v>8-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8-25-2021</c:v>
+                  <c:v>8-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8-26-2021</c:v>
+                  <c:v>8-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8-27-2021</c:v>
+                  <c:v>8-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8-28-2021</c:v>
+                  <c:v>8-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8-29-2021</c:v>
+                  <c:v>8-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8-30-2021</c:v>
+                  <c:v>8-31-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8-31-2021</c:v>
+                  <c:v>9-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9-1-2021</c:v>
+                  <c:v>9-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9-2-2021</c:v>
+                  <c:v>9-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9-3-2021</c:v>
+                  <c:v>9-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9-4-2021</c:v>
+                  <c:v>9-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9-5-2021</c:v>
+                  <c:v>9-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9-6-2021</c:v>
+                  <c:v>9-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9-7-2021</c:v>
+                  <c:v>9-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9-8-2021</c:v>
+                  <c:v>9-9-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3899:$B$3929</c:f>
+              <c:f>DolarToday!$B$3900:$B$3930</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>4127055.62</c:v>
+                  <c:v>4150522.91</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4150522.91</c:v>
+                  <c:v>4146011.83</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4146011.83</c:v>
+                  <c:v>4140112.32</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4140112.32</c:v>
@@ -12070,19 +12073,19 @@
                   <c:v>4140112.32</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4140112.32</c:v>
+                  <c:v>4145632.48</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4145632.48</c:v>
+                  <c:v>4138022.71</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4138022.71</c:v>
+                  <c:v>4142050.55</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4142050.55</c:v>
+                  <c:v>4142988.77</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4142988.77</c:v>
+                  <c:v>4129102.09</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4129102.09</c:v>
@@ -12091,19 +12094,19 @@
                   <c:v>4129102.09</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4129102.09</c:v>
+                  <c:v>4136066.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4136066.4</c:v>
+                  <c:v>4150378.78</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>4150378.78</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4150378.78</c:v>
+                  <c:v>4153512.02</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4153512.02</c:v>
+                  <c:v>4146022.12</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>4146022.12</c:v>
@@ -12112,19 +12115,19 @@
                   <c:v>4146022.12</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4146022.12</c:v>
+                  <c:v>4140633.92</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4140633.92</c:v>
+                  <c:v>4148043.63</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4148043.63</c:v>
+                  <c:v>4138043.82</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4138043.82</c:v>
+                  <c:v>4120404.82</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4120404.82</c:v>
+                  <c:v>4102843.92</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>4102843.92</c:v>
@@ -12133,19 +12136,19 @@
                   <c:v>4102843.92</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4102843.92</c:v>
+                  <c:v>4110528.83</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4110528.83</c:v>
+                  <c:v>4100455.23</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4100455.23</c:v>
+                  <c:v>4142063.83</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4142063.83</c:v>
+                  <c:v>4127011.53</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4127011.53</c:v>
+                  <c:v>4128163.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12552,7 +12555,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3929"/>
+  <dimension ref="A1:K3930"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -44004,16 +44007,6 @@
       <c r="B3927">
         <v>4100455.23</v>
       </c>
-      <c r="D3927" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3927" s="3"/>
-      <c r="F3927" s="3"/>
-      <c r="G3927" s="3"/>
-      <c r="H3927" s="3"/>
-      <c r="I3927" s="3"/>
-      <c r="J3927" s="3"/>
-      <c r="K3927" s="3"/>
     </row>
     <row r="3928" spans="1:11">
       <c r="A3928" t="s">
@@ -44022,16 +44015,16 @@
       <c r="B3928">
         <v>4142063.83</v>
       </c>
-      <c r="D3928" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3928" s="4"/>
-      <c r="F3928" s="4"/>
-      <c r="G3928" s="4"/>
-      <c r="H3928" s="4"/>
-      <c r="I3928" s="4"/>
-      <c r="J3928" s="4"/>
-      <c r="K3928" s="4"/>
+      <c r="D3928" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3928" s="3"/>
+      <c r="F3928" s="3"/>
+      <c r="G3928" s="3"/>
+      <c r="H3928" s="3"/>
+      <c r="I3928" s="3"/>
+      <c r="J3928" s="3"/>
+      <c r="K3928" s="3"/>
     </row>
     <row r="3929" spans="1:11">
       <c r="A3929" t="s">
@@ -44040,7 +44033,9 @@
       <c r="B3929">
         <v>4127011.53</v>
       </c>
-      <c r="D3929" s="4"/>
+      <c r="D3929" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3929" s="4"/>
       <c r="F3929" s="4"/>
       <c r="G3929" s="4"/>
@@ -44049,12 +44044,28 @@
       <c r="J3929" s="4"/>
       <c r="K3929" s="4"/>
     </row>
+    <row r="3930" spans="1:11">
+      <c r="A3930" t="s">
+        <v>3933</v>
+      </c>
+      <c r="B3930">
+        <v>4128163.85</v>
+      </c>
+      <c r="D3930" s="4"/>
+      <c r="E3930" s="4"/>
+      <c r="F3930" s="4"/>
+      <c r="G3930" s="4"/>
+      <c r="H3930" s="4"/>
+      <c r="I3930" s="4"/>
+      <c r="J3930" s="4"/>
+      <c r="K3930" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3927:K3927"/>
-    <mergeCell ref="D3928:K3929"/>
+    <mergeCell ref="D3928:K3928"/>
+    <mergeCell ref="D3929:K3930"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3936" uniqueCount="3934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3939" uniqueCount="3937">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11816,6 +11816,15 @@
   </si>
   <si>
     <t>9-9-2021</t>
+  </si>
+  <si>
+    <t>9-10-2021</t>
+  </si>
+  <si>
+    <t>9-11-2021</t>
+  </si>
+  <si>
+    <t>9-12-2021</t>
   </si>
 </sst>
 </file>
@@ -11952,203 +11961,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3900:$A$3930</c:f>
+              <c:f>DolarToday!$A$3903:$A$3933</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>8-10-2021</c:v>
+                  <c:v>8-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8-11-2021</c:v>
+                  <c:v>8-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8-12-2021</c:v>
+                  <c:v>8-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8-13-2021</c:v>
+                  <c:v>8-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8-14-2021</c:v>
+                  <c:v>8-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8-15-2021</c:v>
+                  <c:v>8-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8-16-2021</c:v>
+                  <c:v>8-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8-17-2021</c:v>
+                  <c:v>8-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8-18-2021</c:v>
+                  <c:v>8-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8-19-2021</c:v>
+                  <c:v>8-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8-20-2021</c:v>
+                  <c:v>8-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8-21-2021</c:v>
+                  <c:v>8-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8-22-2021</c:v>
+                  <c:v>8-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8-23-2021</c:v>
+                  <c:v>8-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8-24-2021</c:v>
+                  <c:v>8-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8-25-2021</c:v>
+                  <c:v>8-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8-26-2021</c:v>
+                  <c:v>8-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8-27-2021</c:v>
+                  <c:v>8-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8-28-2021</c:v>
+                  <c:v>8-31-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8-29-2021</c:v>
+                  <c:v>9-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8-30-2021</c:v>
+                  <c:v>9-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8-31-2021</c:v>
+                  <c:v>9-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9-1-2021</c:v>
+                  <c:v>9-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9-2-2021</c:v>
+                  <c:v>9-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9-3-2021</c:v>
+                  <c:v>9-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9-4-2021</c:v>
+                  <c:v>9-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9-5-2021</c:v>
+                  <c:v>9-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9-6-2021</c:v>
+                  <c:v>9-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9-7-2021</c:v>
+                  <c:v>9-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9-8-2021</c:v>
+                  <c:v>9-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9-9-2021</c:v>
+                  <c:v>9-12-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3900:$B$3930</c:f>
+              <c:f>DolarToday!$B$3903:$B$3933</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>4150522.91</c:v>
+                  <c:v>4140112.32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4146011.83</c:v>
+                  <c:v>4140112.32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4140112.32</c:v>
+                  <c:v>4145632.48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4140112.32</c:v>
+                  <c:v>4138022.71</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4140112.32</c:v>
+                  <c:v>4142050.55</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4145632.48</c:v>
+                  <c:v>4142988.77</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4138022.71</c:v>
+                  <c:v>4129102.09</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4142050.55</c:v>
+                  <c:v>4129102.09</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4142988.77</c:v>
+                  <c:v>4129102.09</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4129102.09</c:v>
+                  <c:v>4136066.4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4129102.09</c:v>
+                  <c:v>4150378.78</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4129102.09</c:v>
+                  <c:v>4150378.78</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4136066.4</c:v>
+                  <c:v>4153512.02</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4150378.78</c:v>
+                  <c:v>4146022.12</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4150378.78</c:v>
+                  <c:v>4146022.12</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4153512.02</c:v>
+                  <c:v>4146022.12</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4146022.12</c:v>
+                  <c:v>4140633.92</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4146022.12</c:v>
+                  <c:v>4148043.63</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4146022.12</c:v>
+                  <c:v>4138043.82</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4140633.92</c:v>
+                  <c:v>4120404.82</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4148043.63</c:v>
+                  <c:v>4102843.92</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4138043.82</c:v>
+                  <c:v>4102843.92</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4120404.82</c:v>
+                  <c:v>4102843.92</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4102843.92</c:v>
+                  <c:v>4110528.83</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4102843.92</c:v>
+                  <c:v>4100455.23</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4102843.92</c:v>
+                  <c:v>4142063.83</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4110528.83</c:v>
+                  <c:v>4127011.53</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4100455.23</c:v>
+                  <c:v>4128163.85</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4142063.83</c:v>
+                  <c:v>4128163.85</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4127011.53</c:v>
+                  <c:v>4128163.85</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4128163.85</c:v>
+                  <c:v>4131401.43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12555,7 +12564,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3930"/>
+  <dimension ref="A1:K3933"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -44015,16 +44024,6 @@
       <c r="B3928">
         <v>4142063.83</v>
       </c>
-      <c r="D3928" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3928" s="3"/>
-      <c r="F3928" s="3"/>
-      <c r="G3928" s="3"/>
-      <c r="H3928" s="3"/>
-      <c r="I3928" s="3"/>
-      <c r="J3928" s="3"/>
-      <c r="K3928" s="3"/>
     </row>
     <row r="3929" spans="1:11">
       <c r="A3929" t="s">
@@ -44033,16 +44032,6 @@
       <c r="B3929">
         <v>4127011.53</v>
       </c>
-      <c r="D3929" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3929" s="4"/>
-      <c r="F3929" s="4"/>
-      <c r="G3929" s="4"/>
-      <c r="H3929" s="4"/>
-      <c r="I3929" s="4"/>
-      <c r="J3929" s="4"/>
-      <c r="K3929" s="4"/>
     </row>
     <row r="3930" spans="1:11">
       <c r="A3930" t="s">
@@ -44051,21 +44040,65 @@
       <c r="B3930">
         <v>4128163.85</v>
       </c>
-      <c r="D3930" s="4"/>
-      <c r="E3930" s="4"/>
-      <c r="F3930" s="4"/>
-      <c r="G3930" s="4"/>
-      <c r="H3930" s="4"/>
-      <c r="I3930" s="4"/>
-      <c r="J3930" s="4"/>
-      <c r="K3930" s="4"/>
+    </row>
+    <row r="3931" spans="1:11">
+      <c r="A3931" t="s">
+        <v>3934</v>
+      </c>
+      <c r="B3931">
+        <v>4128163.85</v>
+      </c>
+      <c r="D3931" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3931" s="3"/>
+      <c r="F3931" s="3"/>
+      <c r="G3931" s="3"/>
+      <c r="H3931" s="3"/>
+      <c r="I3931" s="3"/>
+      <c r="J3931" s="3"/>
+      <c r="K3931" s="3"/>
+    </row>
+    <row r="3932" spans="1:11">
+      <c r="A3932" t="s">
+        <v>3935</v>
+      </c>
+      <c r="B3932">
+        <v>4128163.85</v>
+      </c>
+      <c r="D3932" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3932" s="4"/>
+      <c r="F3932" s="4"/>
+      <c r="G3932" s="4"/>
+      <c r="H3932" s="4"/>
+      <c r="I3932" s="4"/>
+      <c r="J3932" s="4"/>
+      <c r="K3932" s="4"/>
+    </row>
+    <row r="3933" spans="1:11">
+      <c r="A3933" t="s">
+        <v>3936</v>
+      </c>
+      <c r="B3933">
+        <v>4131401.43</v>
+      </c>
+      <c r="D3933" s="4"/>
+      <c r="E3933" s="4"/>
+      <c r="F3933" s="4"/>
+      <c r="G3933" s="4"/>
+      <c r="H3933" s="4"/>
+      <c r="I3933" s="4"/>
+      <c r="J3933" s="4"/>
+      <c r="K3933" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3928:K3928"/>
-    <mergeCell ref="D3929:K3930"/>
+    <mergeCell ref="D3931:K3931"/>
+    <mergeCell ref="D3932:K3933"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3939" uniqueCount="3937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3940" uniqueCount="3938">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11825,6 +11825,9 @@
   </si>
   <si>
     <t>9-12-2021</t>
+  </si>
+  <si>
+    <t>9-13-2021</t>
   </si>
 </sst>
 </file>
@@ -11961,108 +11964,108 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3903:$A$3933</c:f>
+              <c:f>DolarToday!$A$3904:$A$3934</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>8-13-2021</c:v>
+                  <c:v>8-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8-14-2021</c:v>
+                  <c:v>8-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8-15-2021</c:v>
+                  <c:v>8-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8-16-2021</c:v>
+                  <c:v>8-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8-17-2021</c:v>
+                  <c:v>8-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8-18-2021</c:v>
+                  <c:v>8-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8-19-2021</c:v>
+                  <c:v>8-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8-20-2021</c:v>
+                  <c:v>8-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8-21-2021</c:v>
+                  <c:v>8-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8-22-2021</c:v>
+                  <c:v>8-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8-23-2021</c:v>
+                  <c:v>8-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8-24-2021</c:v>
+                  <c:v>8-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8-25-2021</c:v>
+                  <c:v>8-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8-26-2021</c:v>
+                  <c:v>8-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8-27-2021</c:v>
+                  <c:v>8-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8-28-2021</c:v>
+                  <c:v>8-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8-29-2021</c:v>
+                  <c:v>8-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8-30-2021</c:v>
+                  <c:v>8-31-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8-31-2021</c:v>
+                  <c:v>9-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9-1-2021</c:v>
+                  <c:v>9-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9-2-2021</c:v>
+                  <c:v>9-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9-3-2021</c:v>
+                  <c:v>9-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9-4-2021</c:v>
+                  <c:v>9-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9-5-2021</c:v>
+                  <c:v>9-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9-6-2021</c:v>
+                  <c:v>9-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9-7-2021</c:v>
+                  <c:v>9-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9-8-2021</c:v>
+                  <c:v>9-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9-9-2021</c:v>
+                  <c:v>9-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9-10-2021</c:v>
+                  <c:v>9-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9-11-2021</c:v>
+                  <c:v>9-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9-12-2021</c:v>
+                  <c:v>9-13-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3903:$B$3933</c:f>
+              <c:f>DolarToday!$B$3904:$B$3934</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -12070,19 +12073,19 @@
                   <c:v>4140112.32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4140112.32</c:v>
+                  <c:v>4145632.48</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4145632.48</c:v>
+                  <c:v>4138022.71</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4138022.71</c:v>
+                  <c:v>4142050.55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4142050.55</c:v>
+                  <c:v>4142988.77</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4142988.77</c:v>
+                  <c:v>4129102.09</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4129102.09</c:v>
@@ -12091,19 +12094,19 @@
                   <c:v>4129102.09</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4129102.09</c:v>
+                  <c:v>4136066.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4136066.4</c:v>
+                  <c:v>4150378.78</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4150378.78</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4150378.78</c:v>
+                  <c:v>4153512.02</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4153512.02</c:v>
+                  <c:v>4146022.12</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>4146022.12</c:v>
@@ -12112,19 +12115,19 @@
                   <c:v>4146022.12</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4146022.12</c:v>
+                  <c:v>4140633.92</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4140633.92</c:v>
+                  <c:v>4148043.63</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4148043.63</c:v>
+                  <c:v>4138043.82</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4138043.82</c:v>
+                  <c:v>4120404.82</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4120404.82</c:v>
+                  <c:v>4102843.92</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>4102843.92</c:v>
@@ -12133,19 +12136,19 @@
                   <c:v>4102843.92</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4102843.92</c:v>
+                  <c:v>4110528.83</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4110528.83</c:v>
+                  <c:v>4100455.23</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4100455.23</c:v>
+                  <c:v>4142063.83</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4142063.83</c:v>
+                  <c:v>4127011.53</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4127011.53</c:v>
+                  <c:v>4128163.85</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>4128163.85</c:v>
@@ -12154,10 +12157,10 @@
                   <c:v>4128163.85</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4128163.85</c:v>
+                  <c:v>4131401.43</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4131401.43</c:v>
+                  <c:v>4127566.46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12564,7 +12567,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3933"/>
+  <dimension ref="A1:K3934"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -44048,16 +44051,6 @@
       <c r="B3931">
         <v>4128163.85</v>
       </c>
-      <c r="D3931" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3931" s="3"/>
-      <c r="F3931" s="3"/>
-      <c r="G3931" s="3"/>
-      <c r="H3931" s="3"/>
-      <c r="I3931" s="3"/>
-      <c r="J3931" s="3"/>
-      <c r="K3931" s="3"/>
     </row>
     <row r="3932" spans="1:11">
       <c r="A3932" t="s">
@@ -44066,16 +44059,16 @@
       <c r="B3932">
         <v>4128163.85</v>
       </c>
-      <c r="D3932" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3932" s="4"/>
-      <c r="F3932" s="4"/>
-      <c r="G3932" s="4"/>
-      <c r="H3932" s="4"/>
-      <c r="I3932" s="4"/>
-      <c r="J3932" s="4"/>
-      <c r="K3932" s="4"/>
+      <c r="D3932" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3932" s="3"/>
+      <c r="F3932" s="3"/>
+      <c r="G3932" s="3"/>
+      <c r="H3932" s="3"/>
+      <c r="I3932" s="3"/>
+      <c r="J3932" s="3"/>
+      <c r="K3932" s="3"/>
     </row>
     <row r="3933" spans="1:11">
       <c r="A3933" t="s">
@@ -44084,7 +44077,9 @@
       <c r="B3933">
         <v>4131401.43</v>
       </c>
-      <c r="D3933" s="4"/>
+      <c r="D3933" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E3933" s="4"/>
       <c r="F3933" s="4"/>
       <c r="G3933" s="4"/>
@@ -44093,12 +44088,28 @@
       <c r="J3933" s="4"/>
       <c r="K3933" s="4"/>
     </row>
+    <row r="3934" spans="1:11">
+      <c r="A3934" t="s">
+        <v>3937</v>
+      </c>
+      <c r="B3934">
+        <v>4127566.46</v>
+      </c>
+      <c r="D3934" s="4"/>
+      <c r="E3934" s="4"/>
+      <c r="F3934" s="4"/>
+      <c r="G3934" s="4"/>
+      <c r="H3934" s="4"/>
+      <c r="I3934" s="4"/>
+      <c r="J3934" s="4"/>
+      <c r="K3934" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3931:K3931"/>
-    <mergeCell ref="D3932:K3933"/>
+    <mergeCell ref="D3932:K3932"/>
+    <mergeCell ref="D3933:K3934"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3940" uniqueCount="3938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3942" uniqueCount="3940">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11828,6 +11828,12 @@
   </si>
   <si>
     <t>9-13-2021</t>
+  </si>
+  <si>
+    <t>9-14-2021</t>
+  </si>
+  <si>
+    <t>9-15-2021</t>
   </si>
 </sst>
 </file>
@@ -11964,203 +11970,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3904:$A$3934</c:f>
+              <c:f>DolarToday!$A$3906:$A$3936</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>8-14-2021</c:v>
+                  <c:v>8-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8-15-2021</c:v>
+                  <c:v>8-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8-16-2021</c:v>
+                  <c:v>8-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8-17-2021</c:v>
+                  <c:v>8-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8-18-2021</c:v>
+                  <c:v>8-20-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8-19-2021</c:v>
+                  <c:v>8-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8-20-2021</c:v>
+                  <c:v>8-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8-21-2021</c:v>
+                  <c:v>8-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8-22-2021</c:v>
+                  <c:v>8-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8-23-2021</c:v>
+                  <c:v>8-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8-24-2021</c:v>
+                  <c:v>8-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8-25-2021</c:v>
+                  <c:v>8-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8-26-2021</c:v>
+                  <c:v>8-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8-27-2021</c:v>
+                  <c:v>8-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8-28-2021</c:v>
+                  <c:v>8-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8-29-2021</c:v>
+                  <c:v>8-31-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8-30-2021</c:v>
+                  <c:v>9-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8-31-2021</c:v>
+                  <c:v>9-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9-1-2021</c:v>
+                  <c:v>9-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9-2-2021</c:v>
+                  <c:v>9-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9-3-2021</c:v>
+                  <c:v>9-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9-4-2021</c:v>
+                  <c:v>9-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9-5-2021</c:v>
+                  <c:v>9-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9-6-2021</c:v>
+                  <c:v>9-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9-7-2021</c:v>
+                  <c:v>9-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9-8-2021</c:v>
+                  <c:v>9-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9-9-2021</c:v>
+                  <c:v>9-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9-10-2021</c:v>
+                  <c:v>9-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9-11-2021</c:v>
+                  <c:v>9-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9-12-2021</c:v>
+                  <c:v>9-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9-13-2021</c:v>
+                  <c:v>9-15-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3904:$B$3934</c:f>
+              <c:f>DolarToday!$B$3906:$B$3936</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>4140112.32</c:v>
+                  <c:v>4138022.71</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4145632.48</c:v>
+                  <c:v>4142050.55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4138022.71</c:v>
+                  <c:v>4142988.77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4142050.55</c:v>
+                  <c:v>4129102.09</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4142988.77</c:v>
+                  <c:v>4129102.09</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4129102.09</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4129102.09</c:v>
+                  <c:v>4136066.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4129102.09</c:v>
+                  <c:v>4150378.78</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4136066.4</c:v>
+                  <c:v>4150378.78</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4150378.78</c:v>
+                  <c:v>4153512.02</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4150378.78</c:v>
+                  <c:v>4146022.12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4153512.02</c:v>
+                  <c:v>4146022.12</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>4146022.12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4146022.12</c:v>
+                  <c:v>4140633.92</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4146022.12</c:v>
+                  <c:v>4148043.63</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4140633.92</c:v>
+                  <c:v>4138043.82</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4148043.63</c:v>
+                  <c:v>4120404.82</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4138043.82</c:v>
+                  <c:v>4102843.92</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4120404.82</c:v>
+                  <c:v>4102843.92</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>4102843.92</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4102843.92</c:v>
+                  <c:v>4110528.83</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4102843.92</c:v>
+                  <c:v>4100455.23</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4110528.83</c:v>
+                  <c:v>4142063.83</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4100455.23</c:v>
+                  <c:v>4127011.53</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4142063.83</c:v>
+                  <c:v>4128163.85</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4127011.53</c:v>
+                  <c:v>4128163.85</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>4128163.85</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4128163.85</c:v>
+                  <c:v>4131401.43</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4128163.85</c:v>
+                  <c:v>4127566.46</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4131401.43</c:v>
+                  <c:v>4108841.69</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4127566.46</c:v>
+                  <c:v>4090341.52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12567,7 +12573,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3934"/>
+  <dimension ref="A1:K3936"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -44059,16 +44065,6 @@
       <c r="B3932">
         <v>4128163.85</v>
       </c>
-      <c r="D3932" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3932" s="3"/>
-      <c r="F3932" s="3"/>
-      <c r="G3932" s="3"/>
-      <c r="H3932" s="3"/>
-      <c r="I3932" s="3"/>
-      <c r="J3932" s="3"/>
-      <c r="K3932" s="3"/>
     </row>
     <row r="3933" spans="1:11">
       <c r="A3933" t="s">
@@ -44077,16 +44073,6 @@
       <c r="B3933">
         <v>4131401.43</v>
       </c>
-      <c r="D3933" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3933" s="4"/>
-      <c r="F3933" s="4"/>
-      <c r="G3933" s="4"/>
-      <c r="H3933" s="4"/>
-      <c r="I3933" s="4"/>
-      <c r="J3933" s="4"/>
-      <c r="K3933" s="4"/>
     </row>
     <row r="3934" spans="1:11">
       <c r="A3934" t="s">
@@ -44095,21 +44081,57 @@
       <c r="B3934">
         <v>4127566.46</v>
       </c>
-      <c r="D3934" s="4"/>
-      <c r="E3934" s="4"/>
-      <c r="F3934" s="4"/>
-      <c r="G3934" s="4"/>
-      <c r="H3934" s="4"/>
-      <c r="I3934" s="4"/>
-      <c r="J3934" s="4"/>
-      <c r="K3934" s="4"/>
+      <c r="D3934" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3934" s="3"/>
+      <c r="F3934" s="3"/>
+      <c r="G3934" s="3"/>
+      <c r="H3934" s="3"/>
+      <c r="I3934" s="3"/>
+      <c r="J3934" s="3"/>
+      <c r="K3934" s="3"/>
+    </row>
+    <row r="3935" spans="1:11">
+      <c r="A3935" t="s">
+        <v>3938</v>
+      </c>
+      <c r="B3935">
+        <v>4108841.69</v>
+      </c>
+      <c r="D3935" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3935" s="4"/>
+      <c r="F3935" s="4"/>
+      <c r="G3935" s="4"/>
+      <c r="H3935" s="4"/>
+      <c r="I3935" s="4"/>
+      <c r="J3935" s="4"/>
+      <c r="K3935" s="4"/>
+    </row>
+    <row r="3936" spans="1:11">
+      <c r="A3936" t="s">
+        <v>3939</v>
+      </c>
+      <c r="B3936">
+        <v>4090341.52</v>
+      </c>
+      <c r="D3936" s="4"/>
+      <c r="E3936" s="4"/>
+      <c r="F3936" s="4"/>
+      <c r="G3936" s="4"/>
+      <c r="H3936" s="4"/>
+      <c r="I3936" s="4"/>
+      <c r="J3936" s="4"/>
+      <c r="K3936" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3932:K3932"/>
-    <mergeCell ref="D3933:K3934"/>
+    <mergeCell ref="D3934:K3934"/>
+    <mergeCell ref="D3935:K3936"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/dolartoday.xlsx
+++ b/dolartoday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3942" uniqueCount="3940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3947" uniqueCount="3945">
   <si>
     <t>Cotizaciones corresponden al CIERRE del dia</t>
   </si>
@@ -11834,6 +11834,21 @@
   </si>
   <si>
     <t>9-15-2021</t>
+  </si>
+  <si>
+    <t>9-16-2021</t>
+  </si>
+  <si>
+    <t>9-17-2021</t>
+  </si>
+  <si>
+    <t>9-18-2021</t>
+  </si>
+  <si>
+    <t>9-19-2021</t>
+  </si>
+  <si>
+    <t>9-20-2021</t>
   </si>
 </sst>
 </file>
@@ -11970,203 +11985,203 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DolarToday!$A$3906:$A$3936</c:f>
+              <c:f>DolarToday!$A$3911:$A$3941</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>8-16-2021</c:v>
+                  <c:v>8-21-2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8-17-2021</c:v>
+                  <c:v>8-22-2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8-18-2021</c:v>
+                  <c:v>8-23-2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8-19-2021</c:v>
+                  <c:v>8-24-2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8-20-2021</c:v>
+                  <c:v>8-25-2021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8-21-2021</c:v>
+                  <c:v>8-26-2021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8-22-2021</c:v>
+                  <c:v>8-27-2021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8-23-2021</c:v>
+                  <c:v>8-28-2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8-24-2021</c:v>
+                  <c:v>8-29-2021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8-25-2021</c:v>
+                  <c:v>8-30-2021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8-26-2021</c:v>
+                  <c:v>8-31-2021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8-27-2021</c:v>
+                  <c:v>9-1-2021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8-28-2021</c:v>
+                  <c:v>9-2-2021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8-29-2021</c:v>
+                  <c:v>9-3-2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8-30-2021</c:v>
+                  <c:v>9-4-2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8-31-2021</c:v>
+                  <c:v>9-5-2021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9-1-2021</c:v>
+                  <c:v>9-6-2021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9-2-2021</c:v>
+                  <c:v>9-7-2021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9-3-2021</c:v>
+                  <c:v>9-8-2021</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9-4-2021</c:v>
+                  <c:v>9-9-2021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9-5-2021</c:v>
+                  <c:v>9-10-2021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9-6-2021</c:v>
+                  <c:v>9-11-2021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9-7-2021</c:v>
+                  <c:v>9-12-2021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9-8-2021</c:v>
+                  <c:v>9-13-2021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9-9-2021</c:v>
+                  <c:v>9-14-2021</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9-10-2021</c:v>
+                  <c:v>9-15-2021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9-11-2021</c:v>
+                  <c:v>9-16-2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9-12-2021</c:v>
+                  <c:v>9-17-2021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9-13-2021</c:v>
+                  <c:v>9-18-2021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9-14-2021</c:v>
+                  <c:v>9-19-2021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9-15-2021</c:v>
+                  <c:v>9-20-2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DolarToday!$B$3906:$B$3936</c:f>
+              <c:f>DolarToday!$B$3911:$B$3941</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>4138022.71</c:v>
+                  <c:v>4129102.09</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4142050.55</c:v>
+                  <c:v>4136066.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4142988.77</c:v>
+                  <c:v>4150378.78</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4129102.09</c:v>
+                  <c:v>4150378.78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4129102.09</c:v>
+                  <c:v>4153512.02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4129102.09</c:v>
+                  <c:v>4146022.12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4136066.4</c:v>
+                  <c:v>4146022.12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4150378.78</c:v>
+                  <c:v>4146022.12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4150378.78</c:v>
+                  <c:v>4140633.92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4153512.02</c:v>
+                  <c:v>4148043.63</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4146022.12</c:v>
+                  <c:v>4138043.82</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4146022.12</c:v>
+                  <c:v>4120404.82</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4146022.12</c:v>
+                  <c:v>4102843.92</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4140633.92</c:v>
+                  <c:v>4102843.92</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4148043.63</c:v>
+                  <c:v>4102843.92</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4138043.82</c:v>
+                  <c:v>4110528.83</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4120404.82</c:v>
+                  <c:v>4100455.23</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4102843.92</c:v>
+                  <c:v>4142063.83</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4102843.92</c:v>
+                  <c:v>4127011.53</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4102843.92</c:v>
+                  <c:v>4128163.85</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4110528.83</c:v>
+                  <c:v>4128163.85</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4100455.23</c:v>
+                  <c:v>4128163.85</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4142063.83</c:v>
+                  <c:v>4131401.43</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4127011.53</c:v>
+                  <c:v>4127566.46</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4128163.85</c:v>
+                  <c:v>4108841.69</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4128163.85</c:v>
+                  <c:v>4090341.52</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4128163.85</c:v>
+                  <c:v>4074044.17</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4131401.43</c:v>
+                  <c:v>4074044.17</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4127566.46</c:v>
+                  <c:v>4074044.17</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4108841.69</c:v>
+                  <c:v>4020104.84</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4090341.52</c:v>
+                  <c:v>4015166.32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12573,7 +12588,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3936"/>
+  <dimension ref="A1:K3941"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43970,7 +43985,7 @@
         <v>4148043.63</v>
       </c>
     </row>
-    <row r="3921" spans="1:11">
+    <row r="3921" spans="1:2">
       <c r="A3921" t="s">
         <v>3924</v>
       </c>
@@ -43978,7 +43993,7 @@
         <v>4138043.82</v>
       </c>
     </row>
-    <row r="3922" spans="1:11">
+    <row r="3922" spans="1:2">
       <c r="A3922" t="s">
         <v>3925</v>
       </c>
@@ -43986,7 +44001,7 @@
         <v>4120404.82</v>
       </c>
     </row>
-    <row r="3923" spans="1:11">
+    <row r="3923" spans="1:2">
       <c r="A3923" t="s">
         <v>3926</v>
       </c>
@@ -43994,7 +44009,7 @@
         <v>4102843.92</v>
       </c>
     </row>
-    <row r="3924" spans="1:11">
+    <row r="3924" spans="1:2">
       <c r="A3924" t="s">
         <v>3927</v>
       </c>
@@ -44002,7 +44017,7 @@
         <v>4102843.92</v>
       </c>
     </row>
-    <row r="3925" spans="1:11">
+    <row r="3925" spans="1:2">
       <c r="A3925" t="s">
         <v>3928</v>
       </c>
@@ -44010,7 +44025,7 @@
         <v>4102843.92</v>
       </c>
     </row>
-    <row r="3926" spans="1:11">
+    <row r="3926" spans="1:2">
       <c r="A3926" t="s">
         <v>3929</v>
       </c>
@@ -44018,7 +44033,7 @@
         <v>4110528.83</v>
       </c>
     </row>
-    <row r="3927" spans="1:11">
+    <row r="3927" spans="1:2">
       <c r="A3927" t="s">
         <v>3930</v>
       </c>
@@ -44026,7 +44041,7 @@
         <v>4100455.23</v>
       </c>
     </row>
-    <row r="3928" spans="1:11">
+    <row r="3928" spans="1:2">
       <c r="A3928" t="s">
         <v>3931</v>
       </c>
@@ -44034,7 +44049,7 @@
         <v>4142063.83</v>
       </c>
     </row>
-    <row r="3929" spans="1:11">
+    <row r="3929" spans="1:2">
       <c r="A3929" t="s">
         <v>3932</v>
       </c>
@@ -44042,7 +44057,7 @@
         <v>4127011.53</v>
       </c>
     </row>
-    <row r="3930" spans="1:11">
+    <row r="3930" spans="1:2">
       <c r="A3930" t="s">
         <v>3933</v>
       </c>
@@ -44050,7 +44065,7 @@
         <v>4128163.85</v>
       </c>
     </row>
-    <row r="3931" spans="1:11">
+    <row r="3931" spans="1:2">
       <c r="A3931" t="s">
         <v>3934</v>
       </c>
@@ -44058,7 +44073,7 @@
         <v>4128163.85</v>
       </c>
     </row>
-    <row r="3932" spans="1:11">
+    <row r="3932" spans="1:2">
       <c r="A3932" t="s">
         <v>3935</v>
       </c>
@@ -44066,7 +44081,7 @@
         <v>4128163.85</v>
       </c>
     </row>
-    <row r="3933" spans="1:11">
+    <row r="3933" spans="1:2">
       <c r="A3933" t="s">
         <v>3936</v>
       </c>
@@ -44074,64 +44089,104 @@
         <v>4131401.43</v>
       </c>
     </row>
-    <row r="3934" spans="1:11">
+    <row r="3934" spans="1:2">
       <c r="A3934" t="s">
         <v>3937</v>
       </c>
       <c r="B3934">
         <v>4127566.46</v>
       </c>
-      <c r="D3934" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3934" s="3"/>
-      <c r="F3934" s="3"/>
-      <c r="G3934" s="3"/>
-      <c r="H3934" s="3"/>
-      <c r="I3934" s="3"/>
-      <c r="J3934" s="3"/>
-      <c r="K3934" s="3"/>
-    </row>
-    <row r="3935" spans="1:11">
+    </row>
+    <row r="3935" spans="1:2">
       <c r="A3935" t="s">
         <v>3938</v>
       </c>
       <c r="B3935">
         <v>4108841.69</v>
       </c>
-      <c r="D3935" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3935" s="4"/>
-      <c r="F3935" s="4"/>
-      <c r="G3935" s="4"/>
-      <c r="H3935" s="4"/>
-      <c r="I3935" s="4"/>
-      <c r="J3935" s="4"/>
-      <c r="K3935" s="4"/>
-    </row>
-    <row r="3936" spans="1:11">
+    </row>
+    <row r="3936" spans="1:2">
       <c r="A3936" t="s">
         <v>3939</v>
       </c>
       <c r="B3936">
         <v>4090341.52</v>
       </c>
-      <c r="D3936" s="4"/>
-      <c r="E3936" s="4"/>
-      <c r="F3936" s="4"/>
-      <c r="G3936" s="4"/>
-      <c r="H3936" s="4"/>
-      <c r="I3936" s="4"/>
-      <c r="J3936" s="4"/>
-      <c r="K3936" s="4"/>
+    </row>
+    <row r="3937" spans="1:11">
+      <c r="A3937" t="s">
+        <v>3940</v>
+      </c>
+      <c r="B3937">
+        <v>4074044.17</v>
+      </c>
+    </row>
+    <row r="3938" spans="1:11">
+      <c r="A3938" t="s">
+        <v>3941</v>
+      </c>
+      <c r="B3938">
+        <v>4074044.17</v>
+      </c>
+    </row>
+    <row r="3939" spans="1:11">
+      <c r="A3939" t="s">
+        <v>3942</v>
+      </c>
+      <c r="B3939">
+        <v>4074044.17</v>
+      </c>
+      <c r="D3939" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3939" s="3"/>
+      <c r="F3939" s="3"/>
+      <c r="G3939" s="3"/>
+      <c r="H3939" s="3"/>
+      <c r="I3939" s="3"/>
+      <c r="J3939" s="3"/>
+      <c r="K3939" s="3"/>
+    </row>
+    <row r="3940" spans="1:11">
+      <c r="A3940" t="s">
+        <v>3943</v>
+      </c>
+      <c r="B3940">
+        <v>4020104.84</v>
+      </c>
+      <c r="D3940" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3940" s="4"/>
+      <c r="F3940" s="4"/>
+      <c r="G3940" s="4"/>
+      <c r="H3940" s="4"/>
+      <c r="I3940" s="4"/>
+      <c r="J3940" s="4"/>
+      <c r="K3940" s="4"/>
+    </row>
+    <row r="3941" spans="1:11">
+      <c r="A3941" t="s">
+        <v>3944</v>
+      </c>
+      <c r="B3941">
+        <v>4015166.32</v>
+      </c>
+      <c r="D3941" s="4"/>
+      <c r="E3941" s="4"/>
+      <c r="F3941" s="4"/>
+      <c r="G3941" s="4"/>
+      <c r="H3941" s="4"/>
+      <c r="I3941" s="4"/>
+      <c r="J3941" s="4"/>
+      <c r="K3941" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K21"/>
-    <mergeCell ref="D3934:K3934"/>
-    <mergeCell ref="D3935:K3936"/>
+    <mergeCell ref="D3939:K3939"/>
+    <mergeCell ref="D3940:K3941"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
